--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2669906.822588461</v>
+        <v>2669906.822588462</v>
       </c>
       <c r="C2">
-        <v>3620213.208426755</v>
+        <v>3620213.208426756</v>
       </c>
       <c r="D2">
-        <v>5853105.573501626</v>
+        <v>5853105.573501623</v>
       </c>
       <c r="E2">
-        <v>7473670.026431236</v>
+        <v>7473670.026431233</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1096439.32252943</v>
+        <v>1096439.322529429</v>
       </c>
       <c r="C3">
         <v>1511704.912233991</v>
@@ -425,13 +425,13 @@
         <v>195234.4955952457</v>
       </c>
       <c r="C4">
-        <v>337489.3026577408</v>
+        <v>337489.3026577411</v>
       </c>
       <c r="D4">
-        <v>705749.9270765947</v>
+        <v>705749.9270765944</v>
       </c>
       <c r="E4">
-        <v>1194532.046817182</v>
+        <v>1194532.046817181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -442,13 +442,13 @@
         <v>273328.293833344</v>
       </c>
       <c r="C5">
-        <v>379675.4654899584</v>
+        <v>379675.4654899587</v>
       </c>
       <c r="D5">
-        <v>664235.2254838538</v>
+        <v>664235.2254838536</v>
       </c>
       <c r="E5">
-        <v>817311.4004538613</v>
+        <v>817311.4004538608</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>286343.926873027</v>
       </c>
       <c r="C6">
-        <v>379675.4654899584</v>
+        <v>379675.4654899587</v>
       </c>
       <c r="D6">
-        <v>664235.2254838538</v>
+        <v>664235.2254838536</v>
       </c>
       <c r="E6">
-        <v>754441.2927266413</v>
+        <v>754441.2927266407</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,7 +493,7 @@
         <v>899132.0137017339</v>
       </c>
       <c r="C8">
-        <v>1393817.452165213</v>
+        <v>1393817.452165214</v>
       </c>
       <c r="D8">
         <v>2517947.770729284</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>879701.1414710329</v>
+        <v>879701.1414710328</v>
       </c>
       <c r="C9">
-        <v>1352724.511567752</v>
+        <v>1352724.511567751</v>
       </c>
       <c r="D9">
         <v>2446455.300323929</v>
       </c>
       <c r="E9">
-        <v>3561105.932607832</v>
+        <v>3561105.932607829</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,7 +527,7 @@
         <v>820260.7844296519</v>
       </c>
       <c r="C10">
-        <v>1320458.63889336</v>
+        <v>1320458.638893361</v>
       </c>
       <c r="D10">
         <v>2562911.123778021</v>
@@ -544,7 +544,7 @@
         <v>899132.0137017339</v>
       </c>
       <c r="C11">
-        <v>1393817.452165213</v>
+        <v>1393817.452165214</v>
       </c>
       <c r="D11">
         <v>2517947.770729284</v>
@@ -561,13 +561,13 @@
         <v>195234.4955952457</v>
       </c>
       <c r="C12">
-        <v>337489.3026577408</v>
+        <v>337489.3026577411</v>
       </c>
       <c r="D12">
-        <v>705749.9270765947</v>
+        <v>705749.9270765944</v>
       </c>
       <c r="E12">
-        <v>1194532.046817182</v>
+        <v>1194532.046817181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>838453.5995813286</v>
+        <v>838453.5995813282</v>
       </c>
       <c r="C13">
         <v>1360534.421010592</v>
@@ -595,13 +595,13 @@
         <v>195234.4955952457</v>
       </c>
       <c r="C14">
-        <v>337489.3026577408</v>
+        <v>337489.3026577411</v>
       </c>
       <c r="D14">
-        <v>705749.9270765947</v>
+        <v>705749.9270765944</v>
       </c>
       <c r="E14">
-        <v>1194532.046817182</v>
+        <v>1194532.046817181</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -612,7 +612,7 @@
         <v>899132.0137017339</v>
       </c>
       <c r="C15">
-        <v>1393817.452165213</v>
+        <v>1393817.452165214</v>
       </c>
       <c r="D15">
         <v>2517947.770729284</v>
@@ -626,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2200471.391443871</v>
+        <v>2200471.39144387</v>
       </c>
       <c r="C16">
-        <v>3365760.111620629</v>
+        <v>3365760.111620627</v>
       </c>
       <c r="D16">
         <v>5986178.391211861</v>
       </c>
       <c r="E16">
-        <v>8606048.505651262</v>
+        <v>8606048.505651264</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,13 +646,13 @@
         <v>195234.4955952457</v>
       </c>
       <c r="C17">
-        <v>337489.3026577408</v>
+        <v>337489.3026577411</v>
       </c>
       <c r="D17">
-        <v>705749.9270765947</v>
+        <v>705749.9270765944</v>
       </c>
       <c r="E17">
-        <v>1194532.046817182</v>
+        <v>1194532.046817181</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -660,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>919074.1380026101</v>
+        <v>919074.1380026098</v>
       </c>
       <c r="C18">
-        <v>1436119.666622291</v>
+        <v>1436119.666622292</v>
       </c>
       <c r="D18">
         <v>2590208.333580146</v>
@@ -677,16 +677,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2200471.391443871</v>
+        <v>2200471.39144387</v>
       </c>
       <c r="C19">
-        <v>3365760.111620629</v>
+        <v>3365760.111620627</v>
       </c>
       <c r="D19">
         <v>5986178.391211861</v>
       </c>
       <c r="E19">
-        <v>8606048.505651262</v>
+        <v>8606048.505651264</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2200471.391443871</v>
+        <v>2200471.39144387</v>
       </c>
       <c r="C20">
-        <v>3365760.111620629</v>
+        <v>3365760.111620627</v>
       </c>
       <c r="D20">
         <v>5986178.391211861</v>
       </c>
       <c r="E20">
-        <v>8606048.505651262</v>
+        <v>8606048.505651264</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2200471.391443871</v>
+        <v>2200471.39144387</v>
       </c>
       <c r="C21">
-        <v>3365760.111620629</v>
+        <v>3365760.111620627</v>
       </c>
       <c r="D21">
         <v>5986178.391211861</v>
       </c>
       <c r="E21">
-        <v>8606048.505651262</v>
+        <v>8606048.505651264</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>563608.5329930861</v>
+        <v>563608.5329930863</v>
       </c>
       <c r="C22">
-        <v>751302.1807369695</v>
+        <v>751302.1807369696</v>
       </c>
       <c r="D22">
         <v>1114421.620864094</v>
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2251728.645556533</v>
+        <v>2251728.645556535</v>
       </c>
       <c r="C23">
         <v>3472449.404001174</v>
       </c>
       <c r="D23">
-        <v>6165866.940024613</v>
+        <v>6165866.940024611</v>
       </c>
       <c r="E23">
-        <v>8850398.715510674</v>
+        <v>8850398.71551067</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -771,7 +771,7 @@
         <v>3859587.089677576</v>
       </c>
       <c r="E24">
-        <v>5059072.951806337</v>
+        <v>5059072.951806335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -785,10 +785,10 @@
         <v>2197895.168270038</v>
       </c>
       <c r="D25">
-        <v>3650960.760505815</v>
+        <v>3650960.760505816</v>
       </c>
       <c r="E25">
-        <v>3887498.162966975</v>
+        <v>3887498.162966973</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -802,10 +802,10 @@
         <v>2197895.168270038</v>
       </c>
       <c r="D26">
-        <v>3650960.760505815</v>
+        <v>3650960.760505816</v>
       </c>
       <c r="E26">
-        <v>3887498.162966975</v>
+        <v>3887498.162966973</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>943540.737143981</v>
+        <v>943540.7371439812</v>
       </c>
       <c r="C27">
         <v>1296620.835564928</v>
@@ -822,7 +822,7 @@
         <v>2216431.443771083</v>
       </c>
       <c r="E27">
-        <v>3146829.478810905</v>
+        <v>3146829.478810903</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,16 +830,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1145728.037960548</v>
+        <v>1145728.037960549</v>
       </c>
       <c r="C28">
-        <v>1394479.011833979</v>
+        <v>1394479.01183398</v>
       </c>
       <c r="D28">
         <v>2086053.123549255</v>
       </c>
       <c r="E28">
-        <v>2440398.371322743</v>
+        <v>2440398.371322741</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -847,16 +847,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1145728.037960548</v>
+        <v>1145728.037960549</v>
       </c>
       <c r="C29">
-        <v>1394479.011833979</v>
+        <v>1394479.01183398</v>
       </c>
       <c r="D29">
         <v>2086053.123549255</v>
       </c>
       <c r="E29">
-        <v>2440398.371322743</v>
+        <v>2440398.371322741</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -867,13 +867,13 @@
         <v>4639669.847489828</v>
       </c>
       <c r="C30">
-        <v>6292103.596576018</v>
+        <v>6292103.596576019</v>
       </c>
       <c r="D30">
-        <v>9754028.55432565</v>
+        <v>9754028.554325642</v>
       </c>
       <c r="E30">
-        <v>13272138.7044563</v>
+        <v>13272138.70445629</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -884,10 +884,10 @@
         <v>3946385.847290198</v>
       </c>
       <c r="C31">
-        <v>5738951.632041863</v>
+        <v>5738951.632041864</v>
       </c>
       <c r="D31">
-        <v>10082816.03368494</v>
+        <v>10082816.03368493</v>
       </c>
       <c r="E31">
         <v>15678198.9374279</v>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3090435.225095136</v>
+        <v>3090435.225095135</v>
       </c>
       <c r="C32">
         <v>5105336.080415857</v>
@@ -907,7 +907,7 @@
         <v>10659754.88025932</v>
       </c>
       <c r="E32">
-        <v>19371028.69710714</v>
+        <v>19371028.69710715</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -918,10 +918,10 @@
         <v>4293027.847390013</v>
       </c>
       <c r="C33">
-        <v>5980955.616525556</v>
+        <v>5980955.616525557</v>
       </c>
       <c r="D33">
-        <v>9863624.380778747</v>
+        <v>9863624.380778739</v>
       </c>
       <c r="E33">
         <v>14513976.24405454</v>
@@ -932,16 +932,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2868864.517987218</v>
+        <v>2868864.517987219</v>
       </c>
       <c r="C34">
-        <v>4569814.074972121</v>
+        <v>4569814.074972125</v>
       </c>
       <c r="D34">
-        <v>8286189.425707184</v>
+        <v>8286189.42570718</v>
       </c>
       <c r="E34">
-        <v>13590966.58363198</v>
+        <v>13590966.58363199</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -952,13 +952,13 @@
         <v>16517477.64186718</v>
       </c>
       <c r="C35">
-        <v>22447162.24234074</v>
+        <v>22447162.24234073</v>
       </c>
       <c r="D35">
-        <v>37825009.24978028</v>
+        <v>37825009.24978029</v>
       </c>
       <c r="E35">
-        <v>58962878.75221924</v>
+        <v>58962878.75221926</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,10 +969,10 @@
         <v>2854074.936816617</v>
       </c>
       <c r="C36">
-        <v>4388985.814350865</v>
+        <v>4388985.814350867</v>
       </c>
       <c r="D36">
-        <v>7894462.366445841</v>
+        <v>7894462.366445839</v>
       </c>
       <c r="E36">
         <v>12086085.40523157</v>
@@ -986,13 +986,13 @@
         <v>3164373.901391268</v>
       </c>
       <c r="C37">
-        <v>4075148.433890574</v>
+        <v>4075148.433890575</v>
       </c>
       <c r="D37">
-        <v>6035252.800809957</v>
+        <v>6035252.800809962</v>
       </c>
       <c r="E37">
-        <v>8029757.649746963</v>
+        <v>8029757.649746962</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,10 +1003,10 @@
         <v>2173787.288781827</v>
       </c>
       <c r="C38">
-        <v>3260118.747112459</v>
+        <v>3260118.74711246</v>
       </c>
       <c r="D38">
-        <v>6478207.134814357</v>
+        <v>6478207.134814363</v>
       </c>
       <c r="E38">
         <v>11381986.57148599</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4661237.2177819</v>
+        <v>4661237.217781901</v>
       </c>
       <c r="C39">
-        <v>5396405.516791588</v>
+        <v>5396405.516791594</v>
       </c>
       <c r="D39">
-        <v>7283455.254532054</v>
+        <v>7283455.25453206</v>
       </c>
       <c r="E39">
-        <v>8781364.02407275</v>
+        <v>8781364.024072748</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1037,13 +1037,13 @@
         <v>21489749.26189318</v>
       </c>
       <c r="C40">
-        <v>25110384.88126252</v>
+        <v>25110384.88126251</v>
       </c>
       <c r="D40">
-        <v>35706310.21437249</v>
+        <v>35706310.2143725</v>
       </c>
       <c r="E40">
-        <v>46714143.1948098</v>
+        <v>46714143.19480981</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1054,13 +1054,13 @@
         <v>25610604.50862705</v>
       </c>
       <c r="C41">
-        <v>26336312.76267096</v>
+        <v>26336312.76267095</v>
       </c>
       <c r="D41">
-        <v>33774555.21150068</v>
+        <v>33774555.21150069</v>
       </c>
       <c r="E41">
-        <v>38858057.63040237</v>
+        <v>38858057.63040238</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1091,7 +1091,7 @@
         <v>3553613.788587423</v>
       </c>
       <c r="D43">
-        <v>6564326.941931935</v>
+        <v>6564326.941931941</v>
       </c>
       <c r="E43">
         <v>10691444.51465091</v>
@@ -1102,16 +1102,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7893556.2175242</v>
+        <v>7893556.217524201</v>
       </c>
       <c r="C44">
-        <v>9705917.068532189</v>
+        <v>9705917.068532195</v>
       </c>
       <c r="D44">
-        <v>14266575.8647041</v>
+        <v>14266575.86470409</v>
       </c>
       <c r="E44">
-        <v>17468343.30230251</v>
+        <v>17468343.3023025</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>1124148.692758323</v>
       </c>
       <c r="C45">
-        <v>1673046.581845775</v>
+        <v>1673046.581845774</v>
       </c>
       <c r="D45">
         <v>3100153.41804818</v>
       </c>
       <c r="E45">
-        <v>4824780.079002596</v>
+        <v>4824780.079002594</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1139,13 +1139,13 @@
         <v>2491020.32544697</v>
       </c>
       <c r="C46">
-        <v>3705867.812163481</v>
+        <v>3705867.812163482</v>
       </c>
       <c r="D46">
-        <v>6572557.532852382</v>
+        <v>6572557.532852385</v>
       </c>
       <c r="E46">
-        <v>10401151.42722333</v>
+        <v>10401151.42722332</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>4061430.436880509</v>
       </c>
       <c r="C47">
-        <v>4913871.207677616</v>
+        <v>4913871.207677618</v>
       </c>
       <c r="D47">
         <v>7413821.614221204</v>
@@ -1173,13 +1173,13 @@
         <v>1595439.954741534</v>
       </c>
       <c r="C48">
-        <v>1967750.103938572</v>
+        <v>1967750.103938571</v>
       </c>
       <c r="D48">
-        <v>2919999.538300092</v>
+        <v>2919999.53830009</v>
       </c>
       <c r="E48">
-        <v>3636022.005186968</v>
+        <v>3636022.005186967</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>14344128.64392016</v>
       </c>
       <c r="C49">
-        <v>21907402.50719589</v>
+        <v>21907402.5071959</v>
       </c>
       <c r="D49">
-        <v>35120574.32812687</v>
+        <v>35120574.32812688</v>
       </c>
       <c r="E49">
-        <v>48326544.64545601</v>
+        <v>48326544.64545599</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1207,7 +1207,7 @@
         <v>4204451.648457175</v>
       </c>
       <c r="C50">
-        <v>6442703.564980716</v>
+        <v>6442703.564980717</v>
       </c>
       <c r="D50">
         <v>12612663.14032256</v>
@@ -1224,13 +1224,13 @@
         <v>2024044.102717556</v>
       </c>
       <c r="C51">
-        <v>2945529.555675041</v>
+        <v>2945529.555675043</v>
       </c>
       <c r="D51">
         <v>4776293.560463959</v>
       </c>
       <c r="E51">
-        <v>6274046.00174289</v>
+        <v>6274046.001742887</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>1814986.067672352</v>
       </c>
       <c r="C52">
-        <v>2803455.560274785</v>
+        <v>2803455.560274784</v>
       </c>
       <c r="D52">
-        <v>4813910.934101137</v>
+        <v>4813910.934101139</v>
       </c>
       <c r="E52">
-        <v>6853891.528464116</v>
+        <v>6853891.528464119</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1258,13 +1258,13 @@
         <v>1806835.490144952</v>
       </c>
       <c r="C53">
-        <v>2906976.48688675</v>
+        <v>2906976.486886751</v>
       </c>
       <c r="D53">
-        <v>5392872.180088923</v>
+        <v>5392872.180088926</v>
       </c>
       <c r="E53">
-        <v>8239970.26381752</v>
+        <v>8239970.263817521</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1281,7 +1281,7 @@
         <v>4929502.40792226</v>
       </c>
       <c r="E54">
-        <v>7928052.617122174</v>
+        <v>7928052.617122171</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1292,13 +1292,13 @@
         <v>6426316.340731291</v>
       </c>
       <c r="C55">
-        <v>7968607.040897202</v>
+        <v>7968607.040897204</v>
       </c>
       <c r="D55">
-        <v>11455171.90276132</v>
+        <v>11455171.90276131</v>
       </c>
       <c r="E55">
-        <v>13605385.11716248</v>
+        <v>13605385.11716249</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1306,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6772121.252207525</v>
+        <v>6772121.252207522</v>
       </c>
       <c r="C56">
         <v>12179141.16888438</v>
@@ -1315,7 +1315,7 @@
         <v>21393791.79825231</v>
       </c>
       <c r="E56">
-        <v>32705294.57164635</v>
+        <v>32705294.57164634</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>5231217.326221793</v>
       </c>
       <c r="C57">
-        <v>8620455.243313191</v>
+        <v>8620455.243313195</v>
       </c>
       <c r="D57">
         <v>17572879.82661736</v>
       </c>
       <c r="E57">
-        <v>29167319.47202307</v>
+        <v>29167319.47202309</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>991270.2158064941</v>
+        <v>991270.2158064945</v>
       </c>
       <c r="C58">
         <v>1344104.185066116</v>
@@ -1349,7 +1349,7 @@
         <v>2189332.193819528</v>
       </c>
       <c r="E58">
-        <v>3145082.473963212</v>
+        <v>3145082.47396321</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,7 +1357,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>991270.2158064941</v>
+        <v>991270.2158064945</v>
       </c>
       <c r="C59">
         <v>1344104.185066116</v>
@@ -1366,7 +1366,7 @@
         <v>2189332.193819528</v>
       </c>
       <c r="E59">
-        <v>3145082.473963212</v>
+        <v>3145082.47396321</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,10 +1380,10 @@
         <v>2868704.42224883</v>
       </c>
       <c r="D60">
-        <v>5184988.391105249</v>
+        <v>5184988.391105251</v>
       </c>
       <c r="E60">
-        <v>7068463.549418586</v>
+        <v>7068463.549418587</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1397,10 +1397,10 @@
         <v>3004501.081290194</v>
       </c>
       <c r="D61">
-        <v>4949307.100600465</v>
+        <v>4949307.100600467</v>
       </c>
       <c r="E61">
-        <v>5898861.667140691</v>
+        <v>5898861.667140692</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>331494.3450434254</v>
+        <v>331494.3450434253</v>
       </c>
       <c r="C62">
-        <v>612342.8628711029</v>
+        <v>612342.8628711026</v>
       </c>
       <c r="D62">
-        <v>1628040.323736554</v>
+        <v>1628040.323736556</v>
       </c>
       <c r="E62">
         <v>2632097.830502131</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>408843.025553558</v>
+        <v>408843.0255535579</v>
       </c>
       <c r="C63">
-        <v>675688.6762715618</v>
+        <v>675688.6762715615</v>
       </c>
       <c r="D63">
-        <v>1513791.879965568</v>
+        <v>1513791.879965569</v>
       </c>
       <c r="E63">
         <v>1974073.372876598</v>
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>409418.1831013899</v>
+        <v>409418.1831013901</v>
       </c>
       <c r="C64">
-        <v>759186.9048824612</v>
+        <v>759186.9048824609</v>
       </c>
       <c r="D64">
-        <v>1917602.262174999</v>
+        <v>1917602.262174998</v>
       </c>
       <c r="E64">
-        <v>2506670.859001317</v>
+        <v>2506670.859001315</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>377924.4767089753</v>
+        <v>377924.4767089754</v>
       </c>
       <c r="C65">
-        <v>741734.3323564276</v>
+        <v>741734.3323564274</v>
       </c>
       <c r="D65">
         <v>1943870.786314382</v>
       </c>
       <c r="E65">
-        <v>2770530.949422508</v>
+        <v>2770530.949422506</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1482,10 +1482,10 @@
         <v>2108646.820423805</v>
       </c>
       <c r="D66">
-        <v>3993299.076419251</v>
+        <v>3993299.076419252</v>
       </c>
       <c r="E66">
-        <v>6099860.513458407</v>
+        <v>6099860.51345841</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,16 +1493,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>874816.0140530536</v>
+        <v>874816.0140530537</v>
       </c>
       <c r="C67">
         <v>1704419.900662284</v>
       </c>
       <c r="D67">
-        <v>4399680.821908825</v>
+        <v>4399680.821908828</v>
       </c>
       <c r="E67">
-        <v>8881129.264596637</v>
+        <v>8881129.264596635</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1516,10 +1516,10 @@
         <v>1829187.603259204</v>
       </c>
       <c r="D68">
-        <v>4135916.900577081</v>
+        <v>4135916.900577083</v>
       </c>
       <c r="E68">
-        <v>7606884.875606956</v>
+        <v>7606884.875606959</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1533,10 +1533,10 @@
         <v>2019082.036169167</v>
       </c>
       <c r="D69">
-        <v>4155254.109580557</v>
+        <v>4155254.10958056</v>
       </c>
       <c r="E69">
-        <v>7046185.201663448</v>
+        <v>7046185.201663446</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1544,16 +1544,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>997290.256020481</v>
+        <v>997290.2560204812</v>
       </c>
       <c r="C70">
         <v>1861750.968415726</v>
       </c>
       <c r="D70">
-        <v>4350795.479443171</v>
+        <v>4350795.479443175</v>
       </c>
       <c r="E70">
-        <v>8000356.114388705</v>
+        <v>8000356.114388704</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1564,7 +1564,7 @@
         <v>5315037.654530353</v>
       </c>
       <c r="C71">
-        <v>7148809.562600879</v>
+        <v>7148809.562600881</v>
       </c>
       <c r="D71">
         <v>12200200.83236189</v>
@@ -1578,16 +1578,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1539676.184733374</v>
+        <v>1539676.184733375</v>
       </c>
       <c r="C72">
         <v>2255078.63779933</v>
       </c>
       <c r="D72">
-        <v>4008598.082183596</v>
+        <v>4008598.082183599</v>
       </c>
       <c r="E72">
-        <v>5651627.713834223</v>
+        <v>5651627.713834222</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1595,16 +1595,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1609661.465857618</v>
+        <v>1609661.465857619</v>
       </c>
       <c r="C73">
         <v>2228856.793173756</v>
       </c>
       <c r="D73">
-        <v>3959712.739717942</v>
+        <v>3959712.739717945</v>
       </c>
       <c r="E73">
-        <v>5504832.188799568</v>
+        <v>5504832.188799567</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>2386187.860927198</v>
       </c>
       <c r="D74">
-        <v>3910827.397252289</v>
+        <v>3910827.397252291</v>
       </c>
       <c r="E74">
-        <v>4917650.088660947</v>
+        <v>4917650.088660946</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1629,16 +1629,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1822899.051957236</v>
+        <v>1822899.051957235</v>
       </c>
       <c r="C75">
-        <v>2432842.89376119</v>
+        <v>2432842.893761189</v>
       </c>
       <c r="D75">
         <v>4033960.50120692</v>
       </c>
       <c r="E75">
-        <v>4626442.52993305</v>
+        <v>4626442.529933055</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1652,10 +1652,10 @@
         <v>2176413.103922609</v>
       </c>
       <c r="D76">
-        <v>4106368.767114903</v>
+        <v>4106368.767114906</v>
       </c>
       <c r="E76">
-        <v>6238809.813972844</v>
+        <v>6238809.813972843</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1663,13 +1663,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3249306.505666659</v>
+        <v>3249306.505666658</v>
       </c>
       <c r="C77">
         <v>4741734.739953597</v>
       </c>
       <c r="D77">
-        <v>8733717.077185396</v>
+        <v>8733717.077185402</v>
       </c>
       <c r="E77">
         <v>12879048.93062018</v>
@@ -1680,13 +1680,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2160621.336242263</v>
+        <v>2160621.336242262</v>
       </c>
       <c r="C78">
         <v>4489514.806977342</v>
       </c>
       <c r="D78">
-        <v>9597491.293610325</v>
+        <v>9597491.293610331</v>
       </c>
       <c r="E78">
         <v>16007857.42788949</v>
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4019760.625567</v>
+        <v>4019760.625566999</v>
       </c>
       <c r="C79">
         <v>5019176.666227478</v>
       </c>
       <c r="D79">
-        <v>8157867.599568777</v>
+        <v>8157867.599568781</v>
       </c>
       <c r="E79">
         <v>10259581.35151099</v>
@@ -1714,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3785274.589075592</v>
+        <v>3785274.589075591</v>
       </c>
       <c r="C80">
         <v>4893066.69973935</v>
       </c>
       <c r="D80">
-        <v>8349817.425440983</v>
+        <v>8349817.425440989</v>
       </c>
       <c r="E80">
         <v>11059974.22290546</v>
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>853935.0074429354</v>
+        <v>853935.0074429346</v>
       </c>
       <c r="C81">
         <v>1113735.330747656</v>
@@ -1740,7 +1740,7 @@
         <v>1858009.092164721</v>
       </c>
       <c r="E81">
-        <v>2701240.47263687</v>
+        <v>2701240.472636871</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>954397.9494950454</v>
+        <v>954397.9494950445</v>
       </c>
       <c r="C82">
         <v>1248733.552656463</v>
@@ -1757,7 +1757,7 @@
         <v>1803361.765924582</v>
       </c>
       <c r="E82">
-        <v>2160992.378109496</v>
+        <v>2160992.378109497</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1768,13 +1768,13 @@
         <v>2122032.355006795</v>
       </c>
       <c r="C83">
-        <v>3590658.552409124</v>
+        <v>3590658.552409123</v>
       </c>
       <c r="D83">
-        <v>7594278.706664638</v>
+        <v>7594278.706664633</v>
       </c>
       <c r="E83">
-        <v>12993026.59647818</v>
+        <v>12993026.59647819</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1785,13 +1785,13 @@
         <v>3642543.727491979</v>
       </c>
       <c r="C84">
-        <v>4375372.010882641</v>
+        <v>4375372.01088264</v>
       </c>
       <c r="D84">
-        <v>6628532.281539655</v>
+        <v>6628532.281539651</v>
       </c>
       <c r="E84">
-        <v>7490877.57858181</v>
+        <v>7490877.578581814</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1802,10 +1802,10 @@
         <v>2424207.199588601</v>
       </c>
       <c r="C85">
-        <v>2827881.340775831</v>
+        <v>2827881.340775832</v>
       </c>
       <c r="D85">
-        <v>4044089.067364765</v>
+        <v>4044089.067364762</v>
       </c>
       <c r="E85">
         <v>4869296.269836106</v>
@@ -1822,7 +1822,7 @@
         <v>2933926.891054925</v>
       </c>
       <c r="D86">
-        <v>3988690.586989906</v>
+        <v>3988690.586989902</v>
       </c>
       <c r="E86">
         <v>4560134.601910004</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>742314.5930747865</v>
+        <v>742314.5930747868</v>
       </c>
       <c r="C87">
-        <v>1010564.717342375</v>
+        <v>1010564.717342376</v>
       </c>
       <c r="D87">
         <v>1573885.536901175</v>
       </c>
       <c r="E87">
-        <v>2279429.004238572</v>
+        <v>2279429.004238571</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>691120.4832075598</v>
+        <v>691120.4832075601</v>
       </c>
       <c r="C88">
-        <v>975717.6581236727</v>
+        <v>975717.6581236734</v>
       </c>
       <c r="D88">
-        <v>1630095.734647645</v>
+        <v>1630095.734647646</v>
       </c>
       <c r="E88">
-        <v>2436631.004530888</v>
+        <v>2436631.004530886</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>793508.7029420132</v>
+        <v>793508.7029420135</v>
       </c>
       <c r="C89">
-        <v>1045411.776561078</v>
+        <v>1045411.776561079</v>
       </c>
       <c r="D89">
         <v>1573885.536901175</v>
       </c>
       <c r="E89">
-        <v>2043626.003800099</v>
+        <v>2043626.003800098</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1887,13 +1887,13 @@
         <v>150488331.2396595</v>
       </c>
       <c r="C90">
-        <v>183548105.2952909</v>
+        <v>183548105.295291</v>
       </c>
       <c r="D90">
         <v>234661023.4965205</v>
       </c>
       <c r="E90">
-        <v>284412418.6463631</v>
+        <v>284412418.6463632</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1904,13 +1904,13 @@
         <v>34716260.14987721</v>
       </c>
       <c r="C91">
-        <v>47066679.78284714</v>
+        <v>47066679.78284716</v>
       </c>
       <c r="D91">
         <v>65124166.78144479</v>
       </c>
       <c r="E91">
-        <v>85314360.68055214</v>
+        <v>85314360.68055215</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1918,16 +1918,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>30978373.73256005</v>
+        <v>30978373.73256004</v>
       </c>
       <c r="C92">
-        <v>44438591.06400796</v>
+        <v>44438591.06400798</v>
       </c>
       <c r="D92">
         <v>67493708.06105135</v>
       </c>
       <c r="E92">
-        <v>97114151.51013453</v>
+        <v>97114151.51013455</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1935,10 +1935,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>62519990.62389392</v>
+        <v>62519990.62389391</v>
       </c>
       <c r="C93">
-        <v>84636402.60443452</v>
+        <v>84636402.60443455</v>
       </c>
       <c r="D93">
         <v>126502929.6048018</v>
@@ -1952,7 +1952,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>39989937.96921922</v>
+        <v>39989937.96921921</v>
       </c>
       <c r="C94">
         <v>67468312.07676394</v>
@@ -1972,13 +1972,13 @@
         <v>18177392.85133689</v>
       </c>
       <c r="C95">
-        <v>24608467.09458505</v>
+        <v>24608467.09458506</v>
       </c>
       <c r="D95">
         <v>34473003.77750188</v>
       </c>
       <c r="E95">
-        <v>45981724.58194412</v>
+        <v>45981724.58194413</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5581227.664213298</v>
+        <v>5581227.664213297</v>
       </c>
       <c r="C96">
-        <v>7943995.445582068</v>
+        <v>7943995.445582071</v>
       </c>
       <c r="D96">
         <v>12306327.29085987</v>
@@ -2003,10 +2003,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5837247.281837761</v>
+        <v>5837247.28183776</v>
       </c>
       <c r="C97">
-        <v>8362100.469033755</v>
+        <v>8362100.469033759</v>
       </c>
       <c r="D97">
         <v>12459200.92180223</v>
@@ -2023,13 +2023,13 @@
         <v>6710257.815394146</v>
       </c>
       <c r="C98">
-        <v>10529947.08163606</v>
+        <v>10529947.08163605</v>
       </c>
       <c r="D98">
         <v>16944145.88767318</v>
       </c>
       <c r="E98">
-        <v>25443469.57767717</v>
+        <v>25443469.57767718</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2040,13 +2040,13 @@
         <v>3479392.941315483</v>
       </c>
       <c r="C99">
-        <v>4318461.443592316</v>
+        <v>4318461.443592314</v>
       </c>
       <c r="D99">
         <v>5930451.060685614</v>
       </c>
       <c r="E99">
-        <v>7538805.800793236</v>
+        <v>7538805.800793238</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,16 +2054,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9117303.168081449</v>
+        <v>9117303.168081446</v>
       </c>
       <c r="C100">
         <v>11018192.16953246</v>
       </c>
       <c r="D100">
-        <v>14681492.61283478</v>
+        <v>14681492.61283479</v>
       </c>
       <c r="E100">
-        <v>18797278.58368232</v>
+        <v>18797278.58368233</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4331978.30085638</v>
+        <v>4331978.300856378</v>
       </c>
       <c r="C101">
         <v>5892081.374081532</v>
       </c>
       <c r="D101">
-        <v>8748039.63977202</v>
+        <v>8748039.639772026</v>
       </c>
       <c r="E101">
         <v>12344481.45794063</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>906693.1327373817</v>
+        <v>906693.1327373814</v>
       </c>
       <c r="C102">
         <v>1060574.647334676</v>
       </c>
       <c r="D102">
-        <v>1369258.378399099</v>
+        <v>1369258.3783991</v>
       </c>
       <c r="E102">
         <v>1683338.380628268</v>
@@ -2105,13 +2105,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>4597319.600323706</v>
+        <v>4597319.600323708</v>
       </c>
       <c r="C103">
-        <v>5834155.993612749</v>
+        <v>5834155.99361275</v>
       </c>
       <c r="D103">
-        <v>7962375.846478514</v>
+        <v>7962375.846478515</v>
       </c>
       <c r="E103">
         <v>9905933.406396288</v>
@@ -2128,7 +2128,7 @@
         <v>14413797.16069032</v>
       </c>
       <c r="D104">
-        <v>20626345.04992529</v>
+        <v>20626345.0499253</v>
       </c>
       <c r="E104">
         <v>27474947.37245763</v>
@@ -2142,13 +2142,13 @@
         <v>1148086.576293358</v>
       </c>
       <c r="C105">
-        <v>1888284.916378579</v>
+        <v>1888284.916378578</v>
       </c>
       <c r="D105">
-        <v>2883625.599050694</v>
+        <v>2883625.599050695</v>
       </c>
       <c r="E105">
-        <v>3936599.140673194</v>
+        <v>3936599.140673195</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2162,10 +2162,10 @@
         <v>1843454.577963492</v>
       </c>
       <c r="D106">
-        <v>2977309.21239788</v>
+        <v>2977309.212397879</v>
       </c>
       <c r="E106">
-        <v>4197421.762742562</v>
+        <v>4197421.762742564</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,7 +2173,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>5256224.082409613</v>
+        <v>5256224.082409615</v>
       </c>
       <c r="C107">
         <v>8027947.355647467</v>
@@ -2182,7 +2182,7 @@
         <v>13946343.15281112</v>
       </c>
       <c r="E107">
-        <v>22131860.20355169</v>
+        <v>22131860.2035517</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2193,13 +2193,13 @@
         <v>11082070.03850278</v>
       </c>
       <c r="C108">
-        <v>14559790.67799713</v>
+        <v>14559790.67799711</v>
       </c>
       <c r="D108">
         <v>20689206.2000137</v>
       </c>
       <c r="E108">
-        <v>27254505.57239824</v>
+        <v>27254505.57239825</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1639265.314421704</v>
+        <v>1639265.314421703</v>
       </c>
       <c r="C109">
-        <v>2431756.157690701</v>
+        <v>2431756.157690702</v>
       </c>
       <c r="D109">
-        <v>3907095.054722899</v>
+        <v>3907095.054722896</v>
       </c>
       <c r="E109">
-        <v>5852117.250533623</v>
+        <v>5852117.250533628</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>83602531.03550689</v>
+        <v>83602531.03550684</v>
       </c>
       <c r="C110">
-        <v>81887974.79851477</v>
+        <v>81887974.7985148</v>
       </c>
       <c r="D110">
-        <v>93620008.42662945</v>
+        <v>93620008.42662939</v>
       </c>
       <c r="E110">
-        <v>93819657.50855491</v>
+        <v>93819657.508555</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>14331862.46322975</v>
+        <v>14331862.46322974</v>
       </c>
       <c r="C111">
-        <v>18322999.88585551</v>
+        <v>18322999.88585552</v>
       </c>
       <c r="D111">
-        <v>26973983.16626001</v>
+        <v>26973983.16625999</v>
       </c>
       <c r="E111">
-        <v>38270989.00348973</v>
+        <v>38270989.00348976</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2261,7 +2261,7 @@
         <v>2877320.170376125</v>
       </c>
       <c r="C112">
-        <v>4289150.211119504</v>
+        <v>4289150.211119502</v>
       </c>
       <c r="D112">
         <v>7336192.967479452</v>
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1366621.151332423</v>
+        <v>1366621.151332422</v>
       </c>
       <c r="C113">
         <v>1545776.243689775</v>
       </c>
       <c r="D113">
-        <v>2078775.474543816</v>
+        <v>2078775.474543818</v>
       </c>
       <c r="E113">
-        <v>2401676.582568932</v>
+        <v>2401676.582568931</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,10 +2292,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2309245.895211887</v>
+        <v>2309245.895211886</v>
       </c>
       <c r="C114">
-        <v>3436594.054614983</v>
+        <v>3436594.054614981</v>
       </c>
       <c r="D114">
         <v>6271123.206225658</v>
@@ -2312,7 +2312,7 @@
         <v>6186238.36630867</v>
       </c>
       <c r="C115">
-        <v>8056647.018183933</v>
+        <v>8056647.018183929</v>
       </c>
       <c r="D115">
         <v>11386382.83494207</v>
@@ -2329,7 +2329,7 @@
         <v>4651667.608774736</v>
       </c>
       <c r="C116">
-        <v>6201879.359321444</v>
+        <v>6201879.359321442</v>
       </c>
       <c r="D116">
         <v>9170241.209349316</v>
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>774418.6524217061</v>
+        <v>774418.652421706</v>
       </c>
       <c r="C117">
         <v>1104125.888349839</v>
       </c>
       <c r="D117">
-        <v>1633323.587141569</v>
+        <v>1633323.587141571</v>
       </c>
       <c r="E117">
-        <v>2309304.406316281</v>
+        <v>2309304.40631628</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2360,13 +2360,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>655666.3201716495</v>
+        <v>655666.3201716493</v>
       </c>
       <c r="C118">
-        <v>632217.7962873268</v>
+        <v>632217.7962873267</v>
       </c>
       <c r="D118">
-        <v>845255.7048433772</v>
+        <v>845255.7048433771</v>
       </c>
       <c r="E118">
         <v>1132997.091181556</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>262255.7476331353</v>
+        <v>262255.7476331354</v>
       </c>
       <c r="C119">
-        <v>318470.0914070476</v>
+        <v>318470.0914070475</v>
       </c>
       <c r="D119">
-        <v>433472.9548923847</v>
+        <v>433472.9548923846</v>
       </c>
       <c r="E119">
-        <v>546115.0257792352</v>
+        <v>546115.0257792354</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,16 +2394,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>18192743.24331594</v>
+        <v>18192743.24331593</v>
       </c>
       <c r="C120">
-        <v>27670531.69053793</v>
+        <v>27670531.69053792</v>
       </c>
       <c r="D120">
         <v>42195917.68998375</v>
       </c>
       <c r="E120">
-        <v>60231152.7915875</v>
+        <v>60231152.79158749</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2411,10 +2411,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>21509652.23242879</v>
+        <v>21509652.23242878</v>
       </c>
       <c r="C121">
-        <v>23038983.46765819</v>
+        <v>23038983.46765818</v>
       </c>
       <c r="D121">
         <v>26803214.50361944</v>
@@ -2431,7 +2431,7 @@
         <v>15296003.97811855</v>
       </c>
       <c r="C122">
-        <v>18055562.14140045</v>
+        <v>18055562.14140044</v>
       </c>
       <c r="D122">
         <v>24217757.67968421</v>
@@ -2445,10 +2445,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>6275283.683330689</v>
+        <v>6275283.683330687</v>
       </c>
       <c r="C123">
-        <v>8180513.591573019</v>
+        <v>8180513.591573015</v>
       </c>
       <c r="D123">
         <v>11387660.35094869</v>
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>3529847.071873512</v>
+        <v>3529847.071873511</v>
       </c>
       <c r="C124">
-        <v>4148689.035726316</v>
+        <v>4148689.035726315</v>
       </c>
       <c r="D124">
         <v>5010570.554417424</v>
       </c>
       <c r="E124">
-        <v>5677574.13689922</v>
+        <v>5677574.136899219</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7502220.349834858</v>
+        <v>7502220.349834859</v>
       </c>
       <c r="C125">
-        <v>8880843.86780959</v>
+        <v>8880843.867809592</v>
       </c>
       <c r="D125">
         <v>12185164.06752179</v>
       </c>
       <c r="E125">
-        <v>15810972.99427299</v>
+        <v>15810972.99427298</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,10 +2496,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7104350.290928477</v>
+        <v>7104350.290928474</v>
       </c>
       <c r="C126">
-        <v>8038587.071101894</v>
+        <v>8038587.071101896</v>
       </c>
       <c r="D126">
         <v>9080368.756518442</v>
@@ -2516,7 +2516,7 @@
         <v>10141870.13919533</v>
       </c>
       <c r="C127">
-        <v>13445186.72058309</v>
+        <v>13445186.7205831</v>
       </c>
       <c r="D127">
         <v>19002094.58790898</v>
@@ -2530,16 +2530,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1825205.506967243</v>
+        <v>1825205.506967242</v>
       </c>
       <c r="C128">
-        <v>2405491.360637788</v>
+        <v>2405491.36063779</v>
       </c>
       <c r="D128">
-        <v>3388314.076952207</v>
+        <v>3388314.076952206</v>
       </c>
       <c r="E128">
-        <v>4507889.60250056</v>
+        <v>4507889.602500559</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2547,13 +2547,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>11813135.64231577</v>
+        <v>11813135.64231576</v>
       </c>
       <c r="C129">
-        <v>14493085.44784267</v>
+        <v>14493085.44784269</v>
       </c>
       <c r="D129">
-        <v>19251784.52813754</v>
+        <v>19251784.52813753</v>
       </c>
       <c r="E129">
         <v>24417735.34687803</v>
@@ -2564,13 +2564,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>3372840.696873518</v>
+        <v>3372840.696873519</v>
       </c>
       <c r="C130">
-        <v>5166450.135597481</v>
+        <v>5166450.135597482</v>
       </c>
       <c r="D130">
-        <v>8249672.018739825</v>
+        <v>8249672.01873983</v>
       </c>
       <c r="E130">
         <v>12457818.39389835</v>
@@ -2587,7 +2587,7 @@
         <v>12114434.80071134</v>
       </c>
       <c r="D131">
-        <v>14228792.10571639</v>
+        <v>14228792.1057164</v>
       </c>
       <c r="E131">
         <v>15804694.97733372</v>
@@ -2601,13 +2601,13 @@
         <v>23456573.93734765</v>
       </c>
       <c r="C132">
-        <v>30820547.36063325</v>
+        <v>30820547.36063326</v>
       </c>
       <c r="D132">
-        <v>41172675.02930702</v>
+        <v>41172675.02930704</v>
       </c>
       <c r="E132">
-        <v>52713306.18910718</v>
+        <v>52713306.18910719</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,13 +2615,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>11140595.02906707</v>
+        <v>11140595.02906708</v>
       </c>
       <c r="C133">
-        <v>13302124.48705558</v>
+        <v>13302124.48705559</v>
       </c>
       <c r="D133">
-        <v>16877769.35944019</v>
+        <v>16877769.3594402</v>
       </c>
       <c r="E133">
         <v>20360165.88256521</v>
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7310519.674068901</v>
+        <v>7310519.674068897</v>
       </c>
       <c r="C134">
         <v>13761319.93994083</v>
@@ -2669,13 +2669,13 @@
         <v>14508829.96320861</v>
       </c>
       <c r="C136">
-        <v>21184299.87010009</v>
+        <v>21184299.8701001</v>
       </c>
       <c r="D136">
         <v>33296540.91905734</v>
       </c>
       <c r="E136">
-        <v>49646156.10424901</v>
+        <v>49646156.10424899</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>3839106.210196092</v>
       </c>
       <c r="C137">
-        <v>4804089.861252206</v>
+        <v>4804089.861252208</v>
       </c>
       <c r="D137">
-        <v>6466069.330263367</v>
+        <v>6466069.330263368</v>
       </c>
       <c r="E137">
-        <v>8458234.002946127</v>
+        <v>8458234.002946125</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2703,13 +2703,13 @@
         <v>9622694.786595399</v>
       </c>
       <c r="C138">
-        <v>11460358.94611972</v>
+        <v>11460358.94611973</v>
       </c>
       <c r="D138">
         <v>14938849.83198778</v>
       </c>
       <c r="E138">
-        <v>18755214.52827185</v>
+        <v>18755214.52827184</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>48849900.46614628</v>
+        <v>48849900.46614627</v>
       </c>
       <c r="C139">
-        <v>74859066.08565567</v>
+        <v>74859066.0856557</v>
       </c>
       <c r="D139">
-        <v>106655464.3818231</v>
+        <v>106655464.3818232</v>
       </c>
       <c r="E139">
-        <v>142870181.5654414</v>
+        <v>142870181.5654415</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2737,13 +2737,13 @@
         <v>15213988.42981686</v>
       </c>
       <c r="C140">
-        <v>24737370.60694012</v>
+        <v>24737370.60694013</v>
       </c>
       <c r="D140">
-        <v>36336718.99775622</v>
+        <v>36336718.99775623</v>
       </c>
       <c r="E140">
-        <v>49898431.82960656</v>
+        <v>49898431.82960653</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,13 +2754,13 @@
         <v>17287629.08306491</v>
       </c>
       <c r="C141">
-        <v>25432518.99297449</v>
+        <v>25432518.9929745</v>
       </c>
       <c r="D141">
-        <v>36465940.56696107</v>
+        <v>36465940.56696108</v>
       </c>
       <c r="E141">
-        <v>49578427.34246556</v>
+        <v>49578427.34246557</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,13 +2768,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2766020.653290386</v>
+        <v>2766020.653290385</v>
       </c>
       <c r="C142">
-        <v>4027774.501149806</v>
+        <v>4027774.501149807</v>
       </c>
       <c r="D142">
-        <v>6892952.180340203</v>
+        <v>6892952.180340204</v>
       </c>
       <c r="E142">
         <v>10997063.36616611</v>
@@ -2785,16 +2785,16 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>13242925.94989723</v>
+        <v>13242925.94989722</v>
       </c>
       <c r="C143">
-        <v>21579959.34997348</v>
+        <v>21579959.34997349</v>
       </c>
       <c r="D143">
         <v>36290809.99425524</v>
       </c>
       <c r="E143">
-        <v>56524174.93910742</v>
+        <v>56524174.9391074</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2802,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>4959897.359512069</v>
+        <v>4959897.359512068</v>
       </c>
       <c r="C144">
-        <v>6980040.760099239</v>
+        <v>6980040.760099242</v>
       </c>
       <c r="D144">
         <v>11798246.87056035</v>
@@ -2819,7 +2819,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>6100673.752199845</v>
+        <v>6100673.752199844</v>
       </c>
       <c r="C145">
         <v>10528228.14648302</v>
@@ -2828,7 +2828,7 @@
         <v>22476407.01290294</v>
       </c>
       <c r="E145">
-        <v>41267243.16692558</v>
+        <v>41267243.16692557</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2836,16 +2836,16 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>9835829.676434586</v>
+        <v>9835829.67643458</v>
       </c>
       <c r="C146">
-        <v>16116792.11627318</v>
+        <v>16116792.11627319</v>
       </c>
       <c r="D146">
-        <v>23256155.70999015</v>
+        <v>23256155.70999014</v>
       </c>
       <c r="E146">
-        <v>31179569.75062887</v>
+        <v>31179569.75062886</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2853,13 +2853,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>9276588.207670512</v>
+        <v>9276588.207670514</v>
       </c>
       <c r="C147">
-        <v>12664049.50583483</v>
+        <v>12664049.50583484</v>
       </c>
       <c r="D147">
-        <v>21311832.13059212</v>
+        <v>21311832.13059213</v>
       </c>
       <c r="E147">
         <v>34389020.76267499</v>
@@ -2870,7 +2870,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>8047885.07001675</v>
+        <v>8047885.070016755</v>
       </c>
       <c r="C148">
         <v>10224404.30116032</v>
@@ -2890,13 +2890,13 @@
         <v>5004463.720811648</v>
       </c>
       <c r="C149">
-        <v>5663690.827666122</v>
+        <v>5663690.82766612</v>
       </c>
       <c r="D149">
-        <v>7438807.705947092</v>
+        <v>7438807.705947097</v>
       </c>
       <c r="E149">
-        <v>9662275.42653648</v>
+        <v>9662275.426536478</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>2680962.707577669</v>
       </c>
       <c r="C150">
-        <v>3295238.299733016</v>
+        <v>3295238.299733015</v>
       </c>
       <c r="D150">
-        <v>4530910.148167774</v>
+        <v>4530910.148167777</v>
       </c>
       <c r="E150">
-        <v>6125192.457893662</v>
+        <v>6125192.457893659</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>21090239.96627766</v>
       </c>
       <c r="C151">
-        <v>22963691.90126446</v>
+        <v>22963691.90126445</v>
       </c>
       <c r="D151">
-        <v>25968201.4462153</v>
+        <v>25968201.44621532</v>
       </c>
       <c r="E151">
-        <v>26571257.42297532</v>
+        <v>26571257.42297531</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,16 +2938,16 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>5361925.415155338</v>
+        <v>5361925.415155337</v>
       </c>
       <c r="C152">
-        <v>6950893.288499331</v>
+        <v>6950893.288499329</v>
       </c>
       <c r="D152">
-        <v>9670450.01773122</v>
+        <v>9670450.017731227</v>
       </c>
       <c r="E152">
-        <v>13026817.76256258</v>
+        <v>13026817.76256257</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,16 +2955,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>34676472.8570629</v>
+        <v>34676472.85706288</v>
       </c>
       <c r="C153">
-        <v>38736581.27703658</v>
+        <v>38736581.27703659</v>
       </c>
       <c r="D153">
-        <v>49387286.79790342</v>
+        <v>49387286.79790337</v>
       </c>
       <c r="E153">
-        <v>59326512.2063851</v>
+        <v>59326512.20638508</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>6952568.032362549</v>
+        <v>6952568.032362546</v>
       </c>
       <c r="C154">
-        <v>9144710.168849485</v>
+        <v>9144710.168849487</v>
       </c>
       <c r="D154">
-        <v>13073105.32885679</v>
+        <v>13073105.32885678</v>
       </c>
       <c r="E154">
         <v>17709406.62877167</v>
@@ -2992,13 +2992,13 @@
         <v>17631257.85996554</v>
       </c>
       <c r="C155">
-        <v>19870168.18569448</v>
+        <v>19870168.18569447</v>
       </c>
       <c r="D155">
-        <v>26361738.22333465</v>
+        <v>26361738.22333463</v>
       </c>
       <c r="E155">
-        <v>33874600.04577431</v>
+        <v>33874600.04577429</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3006,13 +3006,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>5863418.311569936</v>
+        <v>5863418.311569934</v>
       </c>
       <c r="C156">
-        <v>7338143.646515467</v>
+        <v>7338143.646515463</v>
       </c>
       <c r="D156">
-        <v>10237568.24207171</v>
+        <v>10237568.2420717</v>
       </c>
       <c r="E156">
         <v>13850205.93004565</v>
@@ -3023,13 +3023,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>6007472.845731007</v>
+        <v>6007472.845731005</v>
       </c>
       <c r="C157">
-        <v>7167129.228471964</v>
+        <v>7167129.228471961</v>
       </c>
       <c r="D157">
-        <v>9895059.386567984</v>
+        <v>9895059.386567978</v>
       </c>
       <c r="E157">
         <v>13373013.35459654</v>
@@ -3043,7 +3043,7 @@
         <v>16956132.81197058</v>
       </c>
       <c r="C158">
-        <v>20831873.79345093</v>
+        <v>20831873.79345092</v>
       </c>
       <c r="D158">
         <v>28200835.87578495</v>
@@ -3057,7 +3057,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>15127379.02097823</v>
+        <v>15127379.02097822</v>
       </c>
       <c r="C159">
         <v>19634043.06852608</v>
@@ -3066,7 +3066,7 @@
         <v>30395712.580328</v>
       </c>
       <c r="E159">
-        <v>46050579.61810967</v>
+        <v>46050579.61810965</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3080,10 +3080,10 @@
         <v>3412002.506927245</v>
       </c>
       <c r="D160">
-        <v>5115995.062753821</v>
+        <v>5115995.062753817</v>
       </c>
       <c r="E160">
-        <v>7445800.750497528</v>
+        <v>7445800.75049753</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3097,10 +3097,10 @@
         <v>16231737.51501989</v>
       </c>
       <c r="D161">
-        <v>24633351.56741618</v>
+        <v>24633351.56741619</v>
       </c>
       <c r="E161">
-        <v>35544406.20497067</v>
+        <v>35544406.20497066</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,7 +3108,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7357636.360588196</v>
+        <v>7357636.360588194</v>
       </c>
       <c r="C162">
         <v>12183149.48750987</v>
@@ -3117,7 +3117,7 @@
         <v>21259831.8562928</v>
       </c>
       <c r="E162">
-        <v>34657875.61143676</v>
+        <v>34657875.61143675</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3125,13 +3125,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>9013631.015348045</v>
+        <v>9013631.015348047</v>
       </c>
       <c r="C163">
         <v>11337036.37501963</v>
       </c>
       <c r="D163">
-        <v>15566217.47586012</v>
+        <v>15566217.47586013</v>
       </c>
       <c r="E163">
         <v>21667824.1788256</v>
@@ -3145,13 +3145,13 @@
         <v>1149967.395118152</v>
       </c>
       <c r="C164">
-        <v>1875380.144211523</v>
+        <v>1875380.144211522</v>
       </c>
       <c r="D164">
         <v>3151658.624814766</v>
       </c>
       <c r="E164">
-        <v>4957799.542067181</v>
+        <v>4957799.542067179</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,7 +3159,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>9630685.242269598</v>
+        <v>9630685.242269602</v>
       </c>
       <c r="C165">
         <v>11410751.131884</v>
@@ -3168,7 +3168,7 @@
         <v>15146573.60041885</v>
       </c>
       <c r="E165">
-        <v>19134050.84042132</v>
+        <v>19134050.84042131</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3632626.889628006</v>
+        <v>3632626.889628008</v>
       </c>
       <c r="C166">
-        <v>5209255.95151226</v>
+        <v>5209255.951512261</v>
       </c>
       <c r="D166">
-        <v>8968365.947616424</v>
+        <v>8968365.947616426</v>
       </c>
       <c r="E166">
-        <v>14692217.60960923</v>
+        <v>14692217.60960922</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3196,7 +3196,7 @@
         <v>16803034.52856103</v>
       </c>
       <c r="C167">
-        <v>21711457.51499205</v>
+        <v>21711457.51499207</v>
       </c>
       <c r="D167">
         <v>33240675.08832612</v>
@@ -3210,7 +3210,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>978335.882995654</v>
+        <v>978335.8829956541</v>
       </c>
       <c r="C168">
         <v>983807.4123255635</v>
@@ -3227,7 +3227,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7568168.223774611</v>
+        <v>7568168.223774613</v>
       </c>
       <c r="C169">
         <v>10437742.63042339</v>
@@ -3250,10 +3250,10 @@
         <v>24570983.13389632</v>
       </c>
       <c r="D170">
-        <v>36903995.82220948</v>
+        <v>36903995.8222095</v>
       </c>
       <c r="E170">
-        <v>52931289.47236526</v>
+        <v>52931289.47236523</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,7 +3261,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6538485.47224065</v>
+        <v>6538485.472240652</v>
       </c>
       <c r="C171">
         <v>8338196.699016383</v>
@@ -3278,13 +3278,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6257470.869854977</v>
+        <v>6257470.869854978</v>
       </c>
       <c r="C172">
-        <v>7284573.823225733</v>
+        <v>7284573.823225734</v>
       </c>
       <c r="D172">
-        <v>9002789.30340191</v>
+        <v>9002789.303401913</v>
       </c>
       <c r="E172">
         <v>10530832.46047057</v>
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>15568587.52419918</v>
+        <v>15568587.52419919</v>
       </c>
       <c r="C173">
         <v>20119299.13081393</v>
       </c>
       <c r="D173">
-        <v>30728528.77938007</v>
+        <v>30728528.77938008</v>
       </c>
       <c r="E173">
-        <v>45541231.60536836</v>
+        <v>45541231.60536834</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,16 +3312,16 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>30521442.02814817</v>
+        <v>30521442.02814815</v>
       </c>
       <c r="C174">
-        <v>40922320.35773605</v>
+        <v>40922320.35773607</v>
       </c>
       <c r="D174">
-        <v>62740057.562149</v>
+        <v>62740057.56214901</v>
       </c>
       <c r="E174">
-        <v>92804268.33289751</v>
+        <v>92804268.33289748</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3335,10 +3335,10 @@
         <v>162880872.9002307</v>
       </c>
       <c r="D175">
-        <v>193478192.2113906</v>
+        <v>193478192.2113907</v>
       </c>
       <c r="E175">
-        <v>215901596.3755506</v>
+        <v>215901596.3755507</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3349,13 +3349,13 @@
         <v>16004621.10489178</v>
       </c>
       <c r="C176">
-        <v>19863478.28076814</v>
+        <v>19863478.28076815</v>
       </c>
       <c r="D176">
         <v>27254669.15717748</v>
       </c>
       <c r="E176">
-        <v>36013245.93007483</v>
+        <v>36013245.93007484</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3369,10 +3369,10 @@
         <v>17226733.3762414</v>
       </c>
       <c r="D177">
-        <v>28920232.27233833</v>
+        <v>28920232.27233832</v>
       </c>
       <c r="E177">
-        <v>45086713.08648328</v>
+        <v>45086713.08648331</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,13 +3380,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4547637.721676979</v>
+        <v>4547637.721676978</v>
       </c>
       <c r="C178">
-        <v>6600358.397171699</v>
+        <v>6600358.397171698</v>
       </c>
       <c r="D178">
-        <v>10345731.08932941</v>
+        <v>10345731.08932942</v>
       </c>
       <c r="E178">
         <v>15501879.47076096</v>
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>18273131.6937257</v>
+        <v>18273131.69372571</v>
       </c>
       <c r="C179">
         <v>22409865.56615963</v>
       </c>
       <c r="D179">
-        <v>33520676.33380523</v>
+        <v>33520676.33380525</v>
       </c>
       <c r="E179">
-        <v>47221325.13500518</v>
+        <v>47221325.13500515</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>708014.1317938167</v>
+        <v>708014.1317938169</v>
       </c>
       <c r="C180">
         <v>832484.7014650574</v>
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>101144.8759705452</v>
+        <v>101144.8759705453</v>
       </c>
       <c r="C181">
         <v>118926.3859235796</v>
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>71407625.45707761</v>
+        <v>71407625.45707759</v>
       </c>
       <c r="C182">
-        <v>74612048.6515867</v>
+        <v>74612048.65158674</v>
       </c>
       <c r="D182">
-        <v>93444140.33938661</v>
+        <v>93444140.33938657</v>
       </c>
       <c r="E182">
-        <v>110449092.6283943</v>
+        <v>110449092.6283944</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,13 +3465,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>4102590.514905089</v>
+        <v>4102590.51490509</v>
       </c>
       <c r="C183">
-        <v>3558128.695857651</v>
+        <v>3558128.695857654</v>
       </c>
       <c r="D183">
-        <v>3697053.28127006</v>
+        <v>3697053.281270059</v>
       </c>
       <c r="E183">
         <v>3320138.387770094</v>
@@ -3491,7 +3491,7 @@
         <v>1018308.766877749</v>
       </c>
       <c r="E184">
-        <v>823733.9585950943</v>
+        <v>823733.958595094</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3516,10 +3516,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>5290982.148470855</v>
+        <v>5290982.148470853</v>
       </c>
       <c r="C186">
-        <v>7303083.203018939</v>
+        <v>7303083.203018934</v>
       </c>
       <c r="D186">
         <v>11103458.99434138</v>
@@ -3533,16 +3533,16 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>2217147.614115604</v>
+        <v>2217147.614115603</v>
       </c>
       <c r="C187">
-        <v>2935207.24565461</v>
+        <v>2935207.245654609</v>
       </c>
       <c r="D187">
         <v>4567366.689579921</v>
       </c>
       <c r="E187">
-        <v>6777495.266866479</v>
+        <v>6777495.266866478</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3550,16 +3550,16 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>5876701.112545553</v>
+        <v>5876701.112545554</v>
       </c>
       <c r="C188">
-        <v>6234928.090870477</v>
+        <v>6234928.090870484</v>
       </c>
       <c r="D188">
         <v>7616752.380637189</v>
       </c>
       <c r="E188">
-        <v>8570261.00557052</v>
+        <v>8570261.005570523</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>81132298.09334472</v>
+        <v>81132298.09334473</v>
       </c>
       <c r="C189">
-        <v>96007754.50494866</v>
+        <v>96007754.50494875</v>
       </c>
       <c r="D189">
         <v>133223923.4576905</v>
       </c>
       <c r="E189">
-        <v>176225991.9270438</v>
+        <v>176225991.9270439</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3587,13 +3587,13 @@
         <v>25916674.69057859</v>
       </c>
       <c r="C190">
-        <v>35483330.59844987</v>
+        <v>35483330.59844991</v>
       </c>
       <c r="D190">
         <v>49993592.8983641</v>
       </c>
       <c r="E190">
-        <v>68383540.94028144</v>
+        <v>68383540.94028147</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3604,13 +3604,13 @@
         <v>1206018.52719274</v>
       </c>
       <c r="C191">
-        <v>1654129.612912051</v>
+        <v>1654129.612912052</v>
       </c>
       <c r="D191">
         <v>2482435.031659257</v>
       </c>
       <c r="E191">
-        <v>3484811.987703664</v>
+        <v>3484811.987703665</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,10 +3618,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>5605618.496065866</v>
+        <v>5605618.496065863</v>
       </c>
       <c r="C192">
-        <v>6915149.27366086</v>
+        <v>6915149.273660858</v>
       </c>
       <c r="D192">
         <v>9680090.595826101</v>
@@ -3635,13 +3635,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>14104115.39813705</v>
+        <v>14104115.39813704</v>
       </c>
       <c r="C193">
         <v>18383293.88713438</v>
       </c>
       <c r="D193">
-        <v>26928748.10851561</v>
+        <v>26928748.10851563</v>
       </c>
       <c r="E193">
         <v>37033444.3738219</v>
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>8613584.761005126</v>
+        <v>8613584.761005122</v>
       </c>
       <c r="C194">
         <v>11430637.86571817</v>
       </c>
       <c r="D194">
-        <v>17648219.09936616</v>
+        <v>17648219.09936617</v>
       </c>
       <c r="E194">
         <v>26278782.49758574</v>
@@ -3669,7 +3669,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>23270830.18466751</v>
+        <v>23270830.18466752</v>
       </c>
       <c r="C195">
         <v>37371917.57904465</v>
@@ -3689,13 +3689,13 @@
         <v>5500932.59573652</v>
       </c>
       <c r="C196">
-        <v>7432728.491996869</v>
+        <v>7432728.491996872</v>
       </c>
       <c r="D196">
         <v>11882364.55837869</v>
       </c>
       <c r="E196">
-        <v>18188232.73766045</v>
+        <v>18188232.73766043</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3709,10 +3709,10 @@
         <v>13767054.00615747</v>
       </c>
       <c r="D197">
-        <v>18316249.07396309</v>
+        <v>18316249.0739631</v>
       </c>
       <c r="E197">
-        <v>22581237.60431476</v>
+        <v>22581237.60431477</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>3631501.497682097</v>
       </c>
       <c r="C198">
-        <v>4644981.636223862</v>
+        <v>4644981.636223863</v>
       </c>
       <c r="D198">
-        <v>6399653.290902768</v>
+        <v>6399653.290902771</v>
       </c>
       <c r="E198">
-        <v>8261428.391822475</v>
+        <v>8261428.391822479</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,7 +3737,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>8937507.38445125</v>
+        <v>8937507.384451251</v>
       </c>
       <c r="C199">
         <v>10538729.91134842</v>
@@ -3754,7 +3754,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7005073.355380709</v>
+        <v>7005073.35538071</v>
       </c>
       <c r="C200">
         <v>10139967.15794605</v>
@@ -3763,7 +3763,7 @@
         <v>15108885.95008193</v>
       </c>
       <c r="E200">
-        <v>21353339.02348025</v>
+        <v>21353339.02348026</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3771,10 +3771,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>7747761.050143551</v>
+        <v>7747761.050143554</v>
       </c>
       <c r="C201">
-        <v>11255447.86169208</v>
+        <v>11255447.86169207</v>
       </c>
       <c r="D201">
         <v>15968298.52488014</v>
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>56890792.24794284</v>
+        <v>56890792.24794281</v>
       </c>
       <c r="C202">
-        <v>96581683.48461832</v>
+        <v>96581683.48461835</v>
       </c>
       <c r="D202">
-        <v>182840376.2453137</v>
+        <v>182840376.2453138</v>
       </c>
       <c r="E202">
         <v>304349211.9201192</v>
@@ -3808,13 +3808,13 @@
         <v>20709906.27398192</v>
       </c>
       <c r="C203">
-        <v>26013166.35931858</v>
+        <v>26013166.35931859</v>
       </c>
       <c r="D203">
-        <v>37550096.42562879</v>
+        <v>37550096.4256288</v>
       </c>
       <c r="E203">
-        <v>52219582.6498979</v>
+        <v>52219582.64989788</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7507825.189811202</v>
+        <v>7507825.189811196</v>
       </c>
       <c r="C204">
         <v>9303334.714907834</v>
@@ -3831,7 +3831,7 @@
         <v>12431479.56122883</v>
       </c>
       <c r="E204">
-        <v>15646415.69371754</v>
+        <v>15646415.69371753</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>926427.2737366466</v>
+        <v>926427.2737366462</v>
       </c>
       <c r="C205">
         <v>1274144.212120293</v>
@@ -3862,10 +3862,10 @@
         <v>31147013.93980544</v>
       </c>
       <c r="D206">
-        <v>40408371.12360097</v>
+        <v>40408371.12360096</v>
       </c>
       <c r="E206">
-        <v>45505593.9566664</v>
+        <v>45505593.95666641</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>3253607.376395307</v>
+        <v>3253607.376395306</v>
       </c>
       <c r="C207">
         <v>4304910.419639485</v>
       </c>
       <c r="D207">
-        <v>5818213.629189848</v>
+        <v>5818213.62918985</v>
       </c>
       <c r="E207">
-        <v>7008022.624360842</v>
+        <v>7008022.624360841</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>2965677.520077138</v>
+        <v>2965677.520077137</v>
       </c>
       <c r="C208">
-        <v>4112726.918762723</v>
+        <v>4112726.918762722</v>
       </c>
       <c r="D208">
-        <v>5929036.745936321</v>
+        <v>5929036.745936323</v>
       </c>
       <c r="E208">
-        <v>7665024.74539467</v>
+        <v>7665024.745394669</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,13 +3910,13 @@
         <v>19521517.81322332</v>
       </c>
       <c r="C209">
-        <v>27900821.19410013</v>
+        <v>27900821.19410012</v>
       </c>
       <c r="D209">
         <v>42005773.7888092</v>
       </c>
       <c r="E209">
-        <v>57480750.2610523</v>
+        <v>57480750.26105231</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2361024.821808984</v>
+        <v>2361024.821808983</v>
       </c>
       <c r="C210">
-        <v>3843670.017535255</v>
+        <v>3843670.017535254</v>
       </c>
       <c r="D210">
-        <v>6206094.537802504</v>
+        <v>6206094.537802506</v>
       </c>
       <c r="E210">
-        <v>9125029.458803179</v>
+        <v>9125029.458803177</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,16 +3941,16 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>42480996.84738922</v>
+        <v>42480996.84738921</v>
       </c>
       <c r="C211">
-        <v>48699019.46416947</v>
+        <v>48699019.46416945</v>
       </c>
       <c r="D211">
-        <v>63375273.52023342</v>
+        <v>63375273.52023341</v>
       </c>
       <c r="E211">
-        <v>74726578.49850029</v>
+        <v>74726578.49850032</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3961,13 +3961,13 @@
         <v>15866044.30129685</v>
       </c>
       <c r="C212">
-        <v>20117034.91147137</v>
+        <v>20117034.91147138</v>
       </c>
       <c r="D212">
         <v>28554450.43996481</v>
       </c>
       <c r="E212">
-        <v>37211059.49366373</v>
+        <v>37211059.49366374</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,16 +3975,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>2677747.663758969</v>
+        <v>2677747.663758968</v>
       </c>
       <c r="C213">
-        <v>3805233.317359902</v>
+        <v>3805233.317359901</v>
       </c>
       <c r="D213">
-        <v>5984448.304309557</v>
+        <v>5984448.30430956</v>
       </c>
       <c r="E213">
-        <v>8760028.280451052</v>
+        <v>8760028.28045105</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>1955235.904596207</v>
       </c>
       <c r="C214">
-        <v>2642176.289113401</v>
+        <v>2642176.2891134</v>
       </c>
       <c r="D214">
         <v>3784441.211258159</v>
       </c>
       <c r="E214">
-        <v>4839693.878913078</v>
+        <v>4839693.878913077</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1629363.253830173</v>
+        <v>1629363.253830172</v>
       </c>
       <c r="C215">
-        <v>2356535.60920925</v>
+        <v>2356535.609209249</v>
       </c>
       <c r="D215">
         <v>3888124.532114547</v>
       </c>
       <c r="E215">
-        <v>5945909.62266464</v>
+        <v>5945909.622664637</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,13 +4026,13 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>6052394.534102608</v>
+        <v>6052394.534102605</v>
       </c>
       <c r="C216">
-        <v>8331134.448457181</v>
+        <v>8331134.448457182</v>
       </c>
       <c r="D216">
-        <v>11816687.93688351</v>
+        <v>11816687.9368835</v>
       </c>
       <c r="E216">
         <v>15307764.7171241</v>
@@ -4049,10 +4049,10 @@
         <v>4279846.988373216</v>
       </c>
       <c r="D217">
-        <v>9446304.831024377</v>
+        <v>9446304.831024382</v>
       </c>
       <c r="E217">
-        <v>17819719.10210494</v>
+        <v>17819719.10210495</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,10 +4063,10 @@
         <v>4820855.437459574</v>
       </c>
       <c r="C218">
-        <v>6236645.955403955</v>
+        <v>6236645.955403957</v>
       </c>
       <c r="D218">
-        <v>8761749.346642744</v>
+        <v>8761749.346642749</v>
       </c>
       <c r="E218">
         <v>10933814.76044679</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>4699993.122686402</v>
+        <v>4699993.1226864</v>
       </c>
       <c r="C219">
-        <v>6475585.831661184</v>
+        <v>6475585.831661187</v>
       </c>
       <c r="D219">
-        <v>9152143.976060351</v>
+        <v>9152143.976060348</v>
       </c>
       <c r="E219">
         <v>11452870.89695527</v>
@@ -4100,7 +4100,7 @@
         <v>6812107.013405396</v>
       </c>
       <c r="D220">
-        <v>10112966.58951811</v>
+        <v>10112966.5895181</v>
       </c>
       <c r="E220">
         <v>13621687.49348129</v>
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>3662360.144289936</v>
+        <v>3662360.144289937</v>
       </c>
       <c r="C221">
-        <v>4661373.239504299</v>
+        <v>4661373.239504302</v>
       </c>
       <c r="D221">
-        <v>6323909.778723221</v>
+        <v>6323909.77872322</v>
       </c>
       <c r="E221">
-        <v>7679015.910728307</v>
+        <v>7679015.910728305</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>3588508.262591645</v>
+        <v>3588508.262591643</v>
       </c>
       <c r="C222">
-        <v>5459807.661988841</v>
+        <v>5459807.661988843</v>
       </c>
       <c r="D222">
-        <v>9515805.326102486</v>
+        <v>9515805.32610248</v>
       </c>
       <c r="E222">
         <v>15165180.77389939</v>
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>4508126.854549606</v>
+        <v>4508126.854549608</v>
       </c>
       <c r="C223">
         <v>5055843.11436033</v>
       </c>
       <c r="D223">
-        <v>6081894.624263882</v>
+        <v>6081894.624263878</v>
       </c>
       <c r="E223">
-        <v>6238323.85140178</v>
+        <v>6238323.851401776</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2575130.474381784</v>
+        <v>2575130.474381785</v>
       </c>
       <c r="C224">
-        <v>3517155.718911565</v>
+        <v>3517155.718911564</v>
       </c>
       <c r="D224">
-        <v>5283248.579676272</v>
+        <v>5283248.579676273</v>
       </c>
       <c r="E224">
-        <v>7198503.202081773</v>
+        <v>7198503.202081776</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4182,10 +4182,10 @@
         <v>2859912.013247489</v>
       </c>
       <c r="C225">
-        <v>3574311.409134147</v>
+        <v>3574311.409134146</v>
       </c>
       <c r="D225">
-        <v>4885899.150245331</v>
+        <v>4885899.150245333</v>
       </c>
       <c r="E225">
         <v>5922330.095153394</v>
@@ -4196,7 +4196,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>2408859.831264514</v>
+        <v>2408859.831264515</v>
       </c>
       <c r="C226">
         <v>3410410.538547452</v>
@@ -4205,7 +4205,7 @@
         <v>5207553.624361007</v>
       </c>
       <c r="E226">
-        <v>7224584.607532725</v>
+        <v>7224584.607532723</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,16 +4213,16 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>2639789.626592919</v>
+        <v>2639789.626592918</v>
       </c>
       <c r="C227">
-        <v>3528324.835510533</v>
+        <v>3528324.835510531</v>
       </c>
       <c r="D227">
-        <v>5653052.616954699</v>
+        <v>5653052.616954701</v>
       </c>
       <c r="E227">
-        <v>8521305.594847322</v>
+        <v>8521305.594847323</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>25706409.37632059</v>
       </c>
       <c r="C228">
-        <v>28719573.96137502</v>
+        <v>28719573.96137501</v>
       </c>
       <c r="D228">
-        <v>35274720.14377182</v>
+        <v>35274720.14377181</v>
       </c>
       <c r="E228">
-        <v>36119931.60909271</v>
+        <v>36119931.6090927</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>3663709.85618259</v>
       </c>
       <c r="C230">
-        <v>4500075.645533072</v>
+        <v>4500075.645533074</v>
       </c>
       <c r="D230">
-        <v>6113634.688209117</v>
+        <v>6113634.688209115</v>
       </c>
       <c r="E230">
-        <v>7613595.968173593</v>
+        <v>7613595.968173592</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>10873960.24955614</v>
       </c>
       <c r="C231">
-        <v>19994060.39796815</v>
+        <v>19994060.39796816</v>
       </c>
       <c r="D231">
-        <v>32044618.43290433</v>
+        <v>32044618.43290432</v>
       </c>
       <c r="E231">
-        <v>45405620.79797545</v>
+        <v>45405620.79797546</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>2158288.867782658</v>
       </c>
       <c r="C232">
-        <v>3319119.198447623</v>
+        <v>3319119.198447624</v>
       </c>
       <c r="D232">
-        <v>5762602.087756247</v>
+        <v>5762602.087756248</v>
       </c>
       <c r="E232">
-        <v>9061049.943088964</v>
+        <v>9061049.943088965</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4321,10 +4321,10 @@
         <v>3401429.807681611</v>
       </c>
       <c r="D233">
-        <v>5904481.902472367</v>
+        <v>5904481.902472368</v>
       </c>
       <c r="E233">
-        <v>9251130.405866692</v>
+        <v>9251130.405866679</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>14570261.49345191</v>
       </c>
       <c r="C234">
-        <v>19226799.87650293</v>
+        <v>19226799.87650294</v>
       </c>
       <c r="D234">
-        <v>26821299.8809144</v>
+        <v>26821299.88091439</v>
       </c>
       <c r="E234">
-        <v>34237835.50613042</v>
+        <v>34237835.50613046</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>13018798.46405657</v>
       </c>
       <c r="C235">
-        <v>18200775.75316287</v>
+        <v>18200775.75316288</v>
       </c>
       <c r="D235">
-        <v>27450907.85933962</v>
+        <v>27450907.85933961</v>
       </c>
       <c r="E235">
-        <v>38222761.7289342</v>
+        <v>38222761.72893424</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4366,16 +4366,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>18685011.26706564</v>
+        <v>18685011.26706565</v>
       </c>
       <c r="C236">
-        <v>21412677.3566622</v>
+        <v>21412677.35666221</v>
       </c>
       <c r="D236">
         <v>25058397.54132378</v>
       </c>
       <c r="E236">
-        <v>24722807.58637446</v>
+        <v>24722807.58637449</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>2674683.561742621</v>
       </c>
       <c r="C237">
-        <v>3838034.685061885</v>
+        <v>3838034.685061884</v>
       </c>
       <c r="D237">
-        <v>5891810.118099017</v>
+        <v>5891810.118099018</v>
       </c>
       <c r="E237">
-        <v>8205238.333795616</v>
+        <v>8205238.333795613</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,16 +4400,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2795071.369333679</v>
+        <v>2795071.369333678</v>
       </c>
       <c r="C238">
-        <v>3696340.303868177</v>
+        <v>3696340.303868175</v>
       </c>
       <c r="D238">
-        <v>5604319.404739573</v>
+        <v>5604319.404739575</v>
       </c>
       <c r="E238">
-        <v>7931369.053665583</v>
+        <v>7931369.053665585</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4423,10 +4423,10 @@
         <v>4369355.096871062</v>
       </c>
       <c r="D239">
-        <v>5319185.062284668</v>
+        <v>5319185.06228467</v>
       </c>
       <c r="E239">
-        <v>5584322.51761443</v>
+        <v>5584322.517614431</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4440,7 +4440,7 @@
         <v>5411322.669822449</v>
       </c>
       <c r="D240">
-        <v>8625585.169225618</v>
+        <v>8625585.16922562</v>
       </c>
       <c r="E240">
         <v>12637258.5380528</v>
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>984590.9844680182</v>
+        <v>984590.9844680181</v>
       </c>
       <c r="C241">
-        <v>1228205.283081376</v>
+        <v>1228205.283081375</v>
       </c>
       <c r="D241">
-        <v>1544146.383913564</v>
+        <v>1544146.383913565</v>
       </c>
       <c r="E241">
         <v>1740188.926430673</v>
@@ -4468,10 +4468,10 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>2696828.833522589</v>
+        <v>2696828.83352259</v>
       </c>
       <c r="C242">
-        <v>4084250.838422815</v>
+        <v>4084250.838422817</v>
       </c>
       <c r="D242">
         <v>6766583.463233846</v>
@@ -4485,13 +4485,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>4248716.31380806</v>
+        <v>4248716.313808059</v>
       </c>
       <c r="C243">
-        <v>6020836.196880348</v>
+        <v>6020836.19688035</v>
       </c>
       <c r="D243">
-        <v>8706843.062320147</v>
+        <v>8706843.062320149</v>
       </c>
       <c r="E243">
         <v>11552387.38200393</v>
@@ -4502,16 +4502,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>3462595.045510485</v>
+        <v>3462595.045510486</v>
       </c>
       <c r="C244">
-        <v>4439403.08524219</v>
+        <v>4439403.085242192</v>
       </c>
       <c r="D244">
-        <v>6387148.876510453</v>
+        <v>6387148.876510452</v>
       </c>
       <c r="E244">
-        <v>8414240.838351229</v>
+        <v>8414240.838351227</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,13 +4519,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>3570374.367282416</v>
+        <v>3570374.367282415</v>
       </c>
       <c r="C245">
-        <v>5507703.729755378</v>
+        <v>5507703.72975538</v>
       </c>
       <c r="D245">
-        <v>9240036.475168398</v>
+        <v>9240036.475168394</v>
       </c>
       <c r="E245">
         <v>14046502.85302196</v>
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>973394.9242809399</v>
+        <v>973394.9242809396</v>
       </c>
       <c r="C246">
-        <v>1953834.319570183</v>
+        <v>1953834.319570184</v>
       </c>
       <c r="D246">
         <v>4859659.431564932</v>
       </c>
       <c r="E246">
-        <v>9442837.076436903</v>
+        <v>9442837.0764369</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>973394.9242809399</v>
+        <v>973394.9242809396</v>
       </c>
       <c r="C247">
-        <v>1953834.319570183</v>
+        <v>1953834.319570184</v>
       </c>
       <c r="D247">
         <v>4859659.431564932</v>
       </c>
       <c r="E247">
-        <v>9442837.076436903</v>
+        <v>9442837.0764369</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4570,16 +4570,16 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>45182625.75869311</v>
+        <v>45182625.7586931</v>
       </c>
       <c r="C248">
-        <v>52777954.18308372</v>
+        <v>52777954.1830837</v>
       </c>
       <c r="D248">
-        <v>65969041.23424908</v>
+        <v>65969041.23424903</v>
       </c>
       <c r="E248">
-        <v>72109532.34257948</v>
+        <v>72109532.34257941</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>24478715.36127214</v>
       </c>
       <c r="C249">
-        <v>27808377.13768862</v>
+        <v>27808377.13768861</v>
       </c>
       <c r="D249">
-        <v>35836256.93332535</v>
+        <v>35836256.93332534</v>
       </c>
       <c r="E249">
-        <v>39969924.31936423</v>
+        <v>39969924.31936421</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4607,7 +4607,7 @@
         <v>21282672.90454493</v>
       </c>
       <c r="C250">
-        <v>27805088.12736785</v>
+        <v>27805088.12736786</v>
       </c>
       <c r="D250">
         <v>36395234.92717655</v>
@@ -4627,7 +4627,7 @@
         <v>15829700.57804597</v>
       </c>
       <c r="D251">
-        <v>22353845.15043949</v>
+        <v>22353845.1504395</v>
       </c>
       <c r="E251">
         <v>29636798.91024524</v>
@@ -4641,7 +4641,7 @@
         <v>5249730.734673366</v>
       </c>
       <c r="C252">
-        <v>7972425.718574062</v>
+        <v>7972425.718574058</v>
       </c>
       <c r="D252">
         <v>13657210.11023537</v>
@@ -4658,10 +4658,10 @@
         <v>657287.403338177</v>
       </c>
       <c r="C253">
-        <v>707006.6376330833</v>
+        <v>707006.637633083</v>
       </c>
       <c r="D253">
-        <v>872125.5750174879</v>
+        <v>872125.5750174881</v>
       </c>
       <c r="E253">
         <v>991432.7256269415</v>
@@ -4672,10 +4672,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>12901631.41951653</v>
+        <v>12901631.41951654</v>
       </c>
       <c r="C254">
-        <v>14697339.41292365</v>
+        <v>14697339.41292366</v>
       </c>
       <c r="D254">
         <v>16616910.28865262</v>
@@ -4692,10 +4692,10 @@
         <v>701106.5635607222</v>
       </c>
       <c r="C255">
-        <v>761391.7636048589</v>
+        <v>761391.7636048587</v>
       </c>
       <c r="D255">
-        <v>872125.5750174879</v>
+        <v>872125.5750174881</v>
       </c>
       <c r="E255">
         <v>811172.2300584067</v>
@@ -4709,13 +4709,13 @@
         <v>4013888.639248461</v>
       </c>
       <c r="C256">
-        <v>4704793.978647189</v>
+        <v>4704793.97864719</v>
       </c>
       <c r="D256">
-        <v>6071006.85674471</v>
+        <v>6071006.856744707</v>
       </c>
       <c r="E256">
-        <v>7182777.880674769</v>
+        <v>7182777.880674766</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4726,13 +4726,13 @@
         <v>1570349.932253553</v>
       </c>
       <c r="C257">
-        <v>1724656.803329301</v>
+        <v>1724656.8033293</v>
       </c>
       <c r="D257">
-        <v>2152221.807928463</v>
+        <v>2152221.807928465</v>
       </c>
       <c r="E257">
-        <v>2413999.078163753</v>
+        <v>2413999.078163751</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4746,7 +4746,7 @@
         <v>1832703.374952017</v>
       </c>
       <c r="D258">
-        <v>2641045.148809506</v>
+        <v>2641045.148809507</v>
       </c>
       <c r="E258">
         <v>3576517.003739466</v>
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>6624415.860577861</v>
+        <v>6624415.860577866</v>
       </c>
       <c r="C260">
-        <v>11111597.26287872</v>
+        <v>11111597.26287873</v>
       </c>
       <c r="D260">
         <v>23016425.5147307</v>
       </c>
       <c r="E260">
-        <v>35869286.52840723</v>
+        <v>35869286.52840722</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>1493523.97094125</v>
+        <v>1493523.970941249</v>
       </c>
       <c r="C261">
-        <v>1919871.297627724</v>
+        <v>1919871.297627723</v>
       </c>
       <c r="D261">
-        <v>4253314.572573809</v>
+        <v>4253314.572573808</v>
       </c>
       <c r="E261">
-        <v>6113549.726540976</v>
+        <v>6113549.72654097</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4814,10 +4814,10 @@
         <v>1967077.928264445</v>
       </c>
       <c r="D262">
-        <v>4651592.451026084</v>
+        <v>4651592.451026085</v>
       </c>
       <c r="E262">
-        <v>8507444.26070651</v>
+        <v>8507444.260706514</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>1770252.329917683</v>
       </c>
       <c r="C263">
-        <v>2371357.911679311</v>
+        <v>2371357.911679312</v>
       </c>
       <c r="D263">
-        <v>4369376.601329014</v>
+        <v>4369376.601329013</v>
       </c>
       <c r="E263">
-        <v>6044251.994751683</v>
+        <v>6044251.994751688</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>763428.8412091769</v>
+        <v>763428.841209177</v>
       </c>
       <c r="C264">
         <v>1040408.467462827</v>
@@ -4859,7 +4859,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>751310.9230947456</v>
+        <v>751310.9230947457</v>
       </c>
       <c r="C265">
         <v>1040408.467462827</v>
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>653499.9753340249</v>
+        <v>653499.9753340245</v>
       </c>
       <c r="C266">
-        <v>1196177.998734205</v>
+        <v>1196177.998734206</v>
       </c>
       <c r="D266">
         <v>2558780.973335118</v>
       </c>
       <c r="E266">
-        <v>4381099.697650586</v>
+        <v>4381099.697650587</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,10 +4893,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>884608.0223534908</v>
+        <v>884608.0223534909</v>
       </c>
       <c r="C267">
-        <v>1148036.929614153</v>
+        <v>1148036.929614154</v>
       </c>
       <c r="D267">
         <v>2043944.206960638</v>
@@ -4916,10 +4916,10 @@
         <v>1799879.341525991</v>
       </c>
       <c r="D268">
-        <v>4525526.705218532</v>
+        <v>4525526.705218531</v>
       </c>
       <c r="E268">
-        <v>7700721.290162191</v>
+        <v>7700721.290162182</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4930,13 +4930,13 @@
         <v>1450606.615454432</v>
       </c>
       <c r="C269">
-        <v>1919871.297627724</v>
+        <v>1919871.297627723</v>
       </c>
       <c r="D269">
-        <v>4287341.089154399</v>
+        <v>4287341.089154398</v>
       </c>
       <c r="E269">
-        <v>6231117.990512918</v>
+        <v>6231117.990512911</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,7 +4944,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>922557.2759467391</v>
+        <v>922557.2759467394</v>
       </c>
       <c r="C270">
         <v>1635032.265587688</v>
@@ -4953,7 +4953,7 @@
         <v>3886555.382944603</v>
       </c>
       <c r="E270">
-        <v>6443678.52459696</v>
+        <v>6443678.524596959</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>317319.9278064337</v>
+        <v>317319.9278064335</v>
       </c>
       <c r="C271">
-        <v>473352.983548946</v>
+        <v>473352.9835489461</v>
       </c>
       <c r="D271">
-        <v>929001.5764155078</v>
+        <v>929001.5764155086</v>
       </c>
       <c r="E271">
         <v>1141014.363432657</v>
@@ -4978,13 +4978,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>228765.5293488243</v>
+        <v>228765.5293488241</v>
       </c>
       <c r="C272">
-        <v>396593.0402707385</v>
+        <v>396593.0402707386</v>
       </c>
       <c r="D272">
-        <v>1025105.187768836</v>
+        <v>1025105.187768837</v>
       </c>
       <c r="E272">
         <v>1793022.571108461</v>
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>750537.3873984988</v>
+        <v>750537.3873984986</v>
       </c>
       <c r="C273">
         <v>1236060.964652876</v>
       </c>
       <c r="D273">
-        <v>2718483.98859589</v>
+        <v>2718483.988595892</v>
       </c>
       <c r="E273">
-        <v>4221121.304658694</v>
+        <v>4221121.304658691</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>909101.6241728296</v>
+        <v>909101.6241728292</v>
       </c>
       <c r="C274">
         <v>1346752.991338208</v>
       </c>
       <c r="D274">
-        <v>2593015.496814541</v>
+        <v>2593015.496814543</v>
       </c>
       <c r="E274">
-        <v>3216092.4225971</v>
+        <v>3216092.422597098</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5032,13 +5032,13 @@
         <v>1789985.340328698</v>
       </c>
       <c r="C275">
-        <v>2898370.086309938</v>
+        <v>2898370.086309937</v>
       </c>
       <c r="D275">
         <v>5976824.729537856</v>
       </c>
       <c r="E275">
-        <v>9247786.289406789</v>
+        <v>9247786.289406786</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5049,13 +5049,13 @@
         <v>405758.298140696</v>
       </c>
       <c r="C276">
-        <v>682309.9968793717</v>
+        <v>682309.9968793716</v>
       </c>
       <c r="D276">
-        <v>1558375.800081055</v>
+        <v>1558375.800081054</v>
       </c>
       <c r="E276">
-        <v>2388050.357315941</v>
+        <v>2388050.357315942</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>3111999.904986185</v>
+        <v>3111999.904986183</v>
       </c>
       <c r="C277">
-        <v>3986145.439735517</v>
+        <v>3986145.439735518</v>
       </c>
       <c r="D277">
         <v>6184968.978157099</v>
       </c>
       <c r="E277">
-        <v>7424736.311097712</v>
+        <v>7424736.311097709</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>2164602.395904915</v>
       </c>
       <c r="C278">
-        <v>3024312.824294421</v>
+        <v>3024312.824294422</v>
       </c>
       <c r="D278">
-        <v>4828034.219590035</v>
+        <v>4828034.219590036</v>
       </c>
       <c r="E278">
-        <v>6640072.33967091</v>
+        <v>6640072.339670904</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,7 +5097,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>912628.1100279706</v>
+        <v>912628.1100279705</v>
       </c>
       <c r="C279">
         <v>1107797.706479552</v>
@@ -5106,7 +5106,7 @@
         <v>1473262.05472577</v>
       </c>
       <c r="E279">
-        <v>1731473.22779709</v>
+        <v>1731473.227797089</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,7 +5114,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>938703.1988859127</v>
+        <v>938703.1988859125</v>
       </c>
       <c r="C280">
         <v>1107797.706479552</v>
@@ -5123,7 +5123,7 @@
         <v>1473262.05472577</v>
       </c>
       <c r="E280">
-        <v>1731473.22779709</v>
+        <v>1731473.227797089</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,7 +5134,7 @@
         <v>2457727.822762271</v>
       </c>
       <c r="C281">
-        <v>3667818.66417962</v>
+        <v>3667818.664179621</v>
       </c>
       <c r="D281">
         <v>7273230.667902962</v>
@@ -5148,13 +5148,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>849445.4812557149</v>
+        <v>849445.4812557147</v>
       </c>
       <c r="C282">
         <v>1180168.806092751</v>
       </c>
       <c r="D282">
-        <v>2161939.814164609</v>
+        <v>2161939.81416461</v>
       </c>
       <c r="E282">
         <v>2312865.709395416</v>
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>810834.3230168187</v>
+        <v>810834.3230168186</v>
       </c>
       <c r="C283">
         <v>1153648.158764824</v>
@@ -5182,13 +5182,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>664111.9217090135</v>
+        <v>664111.9217090133</v>
       </c>
       <c r="C284">
         <v>1074086.216781043</v>
       </c>
       <c r="D284">
-        <v>2349934.580613705</v>
+        <v>2349934.580613706</v>
       </c>
       <c r="E284">
         <v>3346273.792316772</v>
@@ -5202,13 +5202,13 @@
         <v>569788.2484528923</v>
       </c>
       <c r="C285">
-        <v>751933.4659486953</v>
+        <v>751933.4659486952</v>
       </c>
       <c r="D285">
-        <v>1399357.861297274</v>
+        <v>1399357.861297273</v>
       </c>
       <c r="E285">
-        <v>1592033.57154396</v>
+        <v>1592033.571543961</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1069078.643175623</v>
+        <v>1069078.643175622</v>
       </c>
       <c r="C286">
-        <v>1142416.384807037</v>
+        <v>1142416.384807038</v>
       </c>
       <c r="D286">
         <v>1473262.05472577</v>
       </c>
       <c r="E286">
-        <v>1515039.074322454</v>
+        <v>1515039.074322453</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>7238014.185598491</v>
+        <v>7238014.185598485</v>
       </c>
       <c r="C287">
-        <v>10176206.38085391</v>
+        <v>10176206.38085392</v>
       </c>
       <c r="D287">
         <v>15583201.2899291</v>
       </c>
       <c r="E287">
-        <v>21468695.75902899</v>
+        <v>21468695.75902898</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,13 +5250,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>3007360.89776899</v>
+        <v>3007360.897768991</v>
       </c>
       <c r="C288">
-        <v>4654129.683185599</v>
+        <v>4654129.683185597</v>
       </c>
       <c r="D288">
-        <v>8507036.014580954</v>
+        <v>8507036.014580958</v>
       </c>
       <c r="E288">
         <v>13535453.91988315</v>
@@ -5276,7 +5276,7 @@
         <v>148854886.4776165</v>
       </c>
       <c r="E289">
-        <v>174884878.9129835</v>
+        <v>174884878.9129837</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,7 +5284,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>6003882.734597826</v>
+        <v>6003882.734597822</v>
       </c>
       <c r="C290">
         <v>9036133.46681634</v>
@@ -5293,7 +5293,7 @@
         <v>16019530.92604712</v>
       </c>
       <c r="E290">
-        <v>25846625.87459569</v>
+        <v>25846625.87459567</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5301,16 +5301,16 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>4936899.90566536</v>
+        <v>4936899.905665361</v>
       </c>
       <c r="C291">
         <v>5731982.461389092</v>
       </c>
       <c r="D291">
-        <v>8101426.495842516</v>
+        <v>8101426.49584252</v>
       </c>
       <c r="E291">
-        <v>9406214.344292276</v>
+        <v>9406214.344292277</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,10 +5318,10 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>769378.3853322156</v>
+        <v>769378.385332216</v>
       </c>
       <c r="C292">
-        <v>1006850.746232378</v>
+        <v>1006850.746232379</v>
       </c>
       <c r="D292">
         <v>1536118.214885887</v>
@@ -5335,16 +5335,16 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>3429717.833534626</v>
+        <v>3429717.833534627</v>
       </c>
       <c r="C293">
         <v>4773330.42551854</v>
       </c>
       <c r="D293">
-        <v>7754984.608099353</v>
+        <v>7754984.608099351</v>
       </c>
       <c r="E293">
-        <v>11375289.12455303</v>
+        <v>11375289.12455302</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5352,10 +5352,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>997342.3513565758</v>
+        <v>997342.3513565763</v>
       </c>
       <c r="C294">
-        <v>1118723.051369309</v>
+        <v>1118723.05136931</v>
       </c>
       <c r="D294">
         <v>1422331.680449895</v>
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>8096498.283337826</v>
+        <v>8096498.28333783</v>
       </c>
       <c r="C295">
         <v>10905351.42075777</v>
       </c>
       <c r="D295">
-        <v>18092111.11711846</v>
+        <v>18092111.11711847</v>
       </c>
       <c r="E295">
-        <v>25794737.08996688</v>
+        <v>25794737.08996687</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,16 +5386,16 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3457267.888116677</v>
+        <v>3457267.888116678</v>
       </c>
       <c r="C296">
-        <v>4540685.187941089</v>
+        <v>4540685.187941087</v>
       </c>
       <c r="D296">
-        <v>7501363.7357729</v>
+        <v>7501363.735772902</v>
       </c>
       <c r="E296">
-        <v>10769378.25193656</v>
+        <v>10769378.25193655</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5412,7 +5412,7 @@
         <v>8264034.276419563</v>
       </c>
       <c r="E297">
-        <v>16073798.72262774</v>
+        <v>16073798.72262773</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>7833151.785728018</v>
+        <v>7833151.785728016</v>
       </c>
       <c r="C298">
         <v>12116563.75377209</v>
       </c>
       <c r="D298">
-        <v>22185159.19980911</v>
+        <v>22185159.19980913</v>
       </c>
       <c r="E298">
-        <v>34283620.43953911</v>
+        <v>34283620.43953913</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5443,10 +5443,10 @@
         <v>14969945.28154012</v>
       </c>
       <c r="D299">
-        <v>28644227.51917634</v>
+        <v>28644227.51917635</v>
       </c>
       <c r="E299">
-        <v>45287202.50154642</v>
+        <v>45287202.50154644</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>9405512.975853523</v>
+        <v>9405512.975853527</v>
       </c>
       <c r="C300">
         <v>11495669.58883298</v>
       </c>
       <c r="D300">
-        <v>17374576.96516475</v>
+        <v>17374576.96516476</v>
       </c>
       <c r="E300">
-        <v>22183473.89737152</v>
+        <v>22183473.89737151</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5474,13 +5474,13 @@
         <v>3305791.487896641</v>
       </c>
       <c r="C301">
-        <v>4532710.857228619</v>
+        <v>4532710.857228618</v>
       </c>
       <c r="D301">
         <v>7764998.37748294</v>
       </c>
       <c r="E301">
-        <v>11471230.51419159</v>
+        <v>11471230.51419158</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5525,13 +5525,13 @@
         <v>1586099.945301365</v>
       </c>
       <c r="C304">
-        <v>2092651.668063987</v>
+        <v>2092651.668063986</v>
       </c>
       <c r="D304">
-        <v>3332549.428756219</v>
+        <v>3332549.428756221</v>
       </c>
       <c r="E304">
-        <v>4346907.862324428</v>
+        <v>4346907.862324429</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5542,13 +5542,13 @@
         <v>1277691.622603878</v>
       </c>
       <c r="C305">
-        <v>1831070.209555989</v>
+        <v>1831070.209555988</v>
       </c>
       <c r="D305">
-        <v>3481768.059894558</v>
+        <v>3481768.059894559</v>
       </c>
       <c r="E305">
-        <v>5650980.221021756</v>
+        <v>5650980.221021757</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5556,16 +5556,16 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>529974.507173712</v>
+        <v>529974.5071737122</v>
       </c>
       <c r="C306">
-        <v>701753.7827296389</v>
+        <v>701753.7827296387</v>
       </c>
       <c r="D306">
         <v>1281208.256096246</v>
       </c>
       <c r="E306">
-        <v>2001436.059259065</v>
+        <v>2001436.059259066</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5579,10 +5579,10 @@
         <v>1976393.242060432</v>
       </c>
       <c r="D307">
-        <v>3382288.972468999</v>
+        <v>3382288.972469001</v>
       </c>
       <c r="E307">
-        <v>4998944.041673092</v>
+        <v>4998944.041673093</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5590,7 +5590,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>389862.0022783045</v>
+        <v>389862.0022783046</v>
       </c>
       <c r="C308">
         <v>658274.1492676992</v>
@@ -5607,10 +5607,10 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>505884.7568476343</v>
+        <v>505884.7568476344</v>
       </c>
       <c r="C309">
-        <v>701753.7827296389</v>
+        <v>701753.7827296387</v>
       </c>
       <c r="D309">
         <v>1281208.256096246</v>
@@ -5633,7 +5633,7 @@
         <v>3328618.924585038</v>
       </c>
       <c r="E310">
-        <v>4526342.027558977</v>
+        <v>4526342.027558978</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>376470.2908146563</v>
+        <v>376470.2908146561</v>
       </c>
       <c r="C311">
-        <v>491574.1065105887</v>
+        <v>491574.1065105886</v>
       </c>
       <c r="D311">
-        <v>962875.5351699268</v>
+        <v>962875.5351699267</v>
       </c>
       <c r="E311">
-        <v>1410868.340428284</v>
+        <v>1410868.340428283</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,13 +5658,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>439215.3392837657</v>
+        <v>439215.3392837655</v>
       </c>
       <c r="C312">
-        <v>522297.4881675005</v>
+        <v>522297.4881675004</v>
       </c>
       <c r="D312">
-        <v>929672.9305088948</v>
+        <v>929672.9305088947</v>
       </c>
       <c r="E312">
         <v>1139547.505730537</v>
@@ -5675,13 +5675,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>428757.8312055808</v>
+        <v>428757.8312055806</v>
       </c>
       <c r="C313">
-        <v>522297.4881675005</v>
+        <v>522297.4881675004</v>
       </c>
       <c r="D313">
-        <v>929672.9305088948</v>
+        <v>929672.9305088947</v>
       </c>
       <c r="E313">
         <v>1139547.505730537</v>
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>355555.2746582865</v>
+        <v>355555.2746582863</v>
       </c>
       <c r="C314">
-        <v>491574.1065105887</v>
+        <v>491574.1065105886</v>
       </c>
       <c r="D314">
-        <v>996078.1398309588</v>
+        <v>996078.1398309586</v>
       </c>
       <c r="E314">
-        <v>1519396.674307383</v>
+        <v>1519396.674307382</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>22241980.6905079</v>
+        <v>22241980.69050792</v>
       </c>
       <c r="C315">
         <v>26175496.58662353</v>
       </c>
       <c r="D315">
-        <v>35679548.84754581</v>
+        <v>35679548.84754582</v>
       </c>
       <c r="E315">
-        <v>44470232.52579649</v>
+        <v>44470232.5257965</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5729,13 +5729,13 @@
         <v>37216465.80367549</v>
       </c>
       <c r="C316">
-        <v>43647565.32969308</v>
+        <v>43647565.32969307</v>
       </c>
       <c r="D316">
-        <v>59089664.76348209</v>
+        <v>59089664.76348213</v>
       </c>
       <c r="E316">
-        <v>75558388.39043492</v>
+        <v>75558388.39043495</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5752,7 +5752,7 @@
         <v>19436337.08273406</v>
       </c>
       <c r="E317">
-        <v>26597834.73551834</v>
+        <v>26597834.73551836</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,7 +5763,7 @@
         <v>5242838.298379415</v>
       </c>
       <c r="C318">
-        <v>6969809.108526709</v>
+        <v>6969809.108526704</v>
       </c>
       <c r="D318">
         <v>10141283.18022974</v>
@@ -5777,13 +5777,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>3758942.190705793</v>
+        <v>3758942.190705794</v>
       </c>
       <c r="C319">
         <v>4904220.569962705</v>
       </c>
       <c r="D319">
-        <v>7134191.126429059</v>
+        <v>7134191.126429058</v>
       </c>
       <c r="E319">
         <v>9464687.155239644</v>
@@ -5794,16 +5794,16 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>3688179.884916787</v>
+        <v>3688179.884916785</v>
       </c>
       <c r="C320">
-        <v>4765490.193048463</v>
+        <v>4765490.193048464</v>
       </c>
       <c r="D320">
-        <v>6771684.787925532</v>
+        <v>6771684.787925534</v>
       </c>
       <c r="E320">
-        <v>8834748.128106261</v>
+        <v>8834748.128106266</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5814,13 +5814,13 @@
         <v>17704676.2739092</v>
       </c>
       <c r="C321">
-        <v>22768028.40576771</v>
+        <v>22768028.40576769</v>
       </c>
       <c r="D321">
-        <v>31665971.80494696</v>
+        <v>31665971.80494697</v>
       </c>
       <c r="E321">
-        <v>40786446.28003547</v>
+        <v>40786446.2800355</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5834,7 +5834,7 @@
         <v>12824098.53953964</v>
       </c>
       <c r="D322">
-        <v>16447334.3832001</v>
+        <v>16447334.38320009</v>
       </c>
       <c r="E322">
         <v>18670617.76951562</v>
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>2924194.292565881</v>
+        <v>2924194.29256588</v>
       </c>
       <c r="C323">
         <v>4062029.770964161</v>
       </c>
       <c r="D323">
-        <v>6486771.323247254</v>
+        <v>6486771.323247252</v>
       </c>
       <c r="E323">
-        <v>9601083.255238609</v>
+        <v>9601083.255238615</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>3220315.233585211</v>
+        <v>3220315.233585209</v>
       </c>
       <c r="C324">
-        <v>4197430.763329634</v>
+        <v>4197430.763329633</v>
       </c>
       <c r="D324">
-        <v>6358320.405955229</v>
+        <v>6358320.405955227</v>
       </c>
       <c r="E324">
-        <v>8921360.546903133</v>
+        <v>8921360.546903137</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,13 +5879,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>2702103.586801384</v>
+        <v>2702103.586801383</v>
       </c>
       <c r="C325">
-        <v>3881495.114476866</v>
+        <v>3881495.114476865</v>
       </c>
       <c r="D325">
-        <v>6550996.781893266</v>
+        <v>6550996.781893265</v>
       </c>
       <c r="E325">
         <v>10280805.96357409</v>
@@ -5896,10 +5896,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>6080129.899419078</v>
+        <v>6080129.899419076</v>
       </c>
       <c r="C326">
-        <v>9177281.862643529</v>
+        <v>9177281.862643536</v>
       </c>
       <c r="D326">
         <v>14589860.28316117</v>
@@ -5919,10 +5919,10 @@
         <v>4772851.102198107</v>
       </c>
       <c r="D327">
-        <v>7636918.676365473</v>
+        <v>7636918.67636547</v>
       </c>
       <c r="E327">
-        <v>11038227.82049397</v>
+        <v>11038227.82049396</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5936,10 +5936,10 @@
         <v>4772851.102198107</v>
       </c>
       <c r="D328">
-        <v>7386527.900091195</v>
+        <v>7386527.900091192</v>
       </c>
       <c r="E328">
-        <v>10536490.1922897</v>
+        <v>10536490.19228969</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5947,16 +5947,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>30857.8069463079</v>
+        <v>30857.80694630789</v>
       </c>
       <c r="C329">
-        <v>39760.820912143</v>
+        <v>39760.82091214301</v>
       </c>
       <c r="D329">
-        <v>60226.79013586406</v>
+        <v>60226.790135864</v>
       </c>
       <c r="E329">
-        <v>81851.59608689818</v>
+        <v>81851.59608689816</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5970,10 +5970,10 @@
         <v>5326842.747988959</v>
       </c>
       <c r="D330">
-        <v>6823148.65347407</v>
+        <v>6823148.653474066</v>
       </c>
       <c r="E330">
-        <v>7693310.299132159</v>
+        <v>7693310.299132157</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>4011614.580727435</v>
+        <v>4011614.580727433</v>
       </c>
       <c r="C331">
-        <v>4948181.964816546</v>
+        <v>4948181.964816547</v>
       </c>
       <c r="D331">
-        <v>7046174.29387009</v>
+        <v>7046174.293870091</v>
       </c>
       <c r="E331">
-        <v>8967106.40660557</v>
+        <v>8967106.406605566</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,7 +5998,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>8760029.282033937</v>
+        <v>8760029.282033943</v>
       </c>
       <c r="C332">
         <v>11263081.28591549</v>
@@ -6007,7 +6007,7 @@
         <v>16958561.5165482</v>
       </c>
       <c r="E332">
-        <v>23391793.1197706</v>
+        <v>23391793.11977059</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,10 +6015,10 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>7151560.505745418</v>
+        <v>7151560.505745417</v>
       </c>
       <c r="C333">
-        <v>9756129.033231076</v>
+        <v>9756129.033231078</v>
       </c>
       <c r="D333">
         <v>14814835.85213187</v>
@@ -6049,10 +6049,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>6213659.540841291</v>
+        <v>6213659.54084129</v>
       </c>
       <c r="C335">
-        <v>9042921.286243584</v>
+        <v>9042921.286243578</v>
       </c>
       <c r="D335">
         <v>15679492.37306201</v>
@@ -6066,16 +6066,16 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>6116072.865570004</v>
+        <v>6116072.865570005</v>
       </c>
       <c r="C336">
-        <v>6917520.367536343</v>
+        <v>6917520.367536344</v>
       </c>
       <c r="D336">
-        <v>9372561.800758386</v>
+        <v>9372561.800758388</v>
       </c>
       <c r="E336">
-        <v>11585139.88379346</v>
+        <v>11585139.88379347</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6083,7 +6083,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>4996931.996845974</v>
+        <v>4996931.996845973</v>
       </c>
       <c r="C337">
         <v>7316035.264348892</v>
@@ -6100,16 +6100,16 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>3832728.332395495</v>
+        <v>3832728.332395494</v>
       </c>
       <c r="C338">
-        <v>6172623.245606467</v>
+        <v>6172623.245606463</v>
       </c>
       <c r="D338">
         <v>12059163.04175285</v>
       </c>
       <c r="E338">
-        <v>19638202.16865507</v>
+        <v>19638202.16865508</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,7 +6117,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>5059393.646806548</v>
+        <v>5059393.646806547</v>
       </c>
       <c r="C339">
         <v>7250322.372752945</v>
@@ -6126,7 +6126,7 @@
         <v>11905440.4832206</v>
       </c>
       <c r="E339">
-        <v>16649272.23900959</v>
+        <v>16649272.23900958</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6137,13 +6137,13 @@
         <v>2423933.356158555</v>
       </c>
       <c r="C340">
-        <v>3079182.620393321</v>
+        <v>3079182.620393323</v>
       </c>
       <c r="D340">
-        <v>4697536.137043583</v>
+        <v>4697536.13704358</v>
       </c>
       <c r="E340">
-        <v>5707088.763094283</v>
+        <v>5707088.763094282</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6151,16 +6151,16 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>1731380.968684682</v>
+        <v>1731380.968684683</v>
       </c>
       <c r="C341">
-        <v>2722448.048518485</v>
+        <v>2722448.048518486</v>
       </c>
       <c r="D341">
-        <v>5151091.350275377</v>
+        <v>5151091.350275375</v>
       </c>
       <c r="E341">
-        <v>7926512.170964281</v>
+        <v>7926512.17096428</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6171,7 +6171,7 @@
         <v>532145.9930062327</v>
       </c>
       <c r="C342">
-        <v>679554.1922377354</v>
+        <v>679554.1922377355</v>
       </c>
       <c r="D342">
         <v>1008088.478250072</v>
@@ -6188,13 +6188,13 @@
         <v>517763.668870929</v>
       </c>
       <c r="C343">
-        <v>658318.1237303062</v>
+        <v>658318.1237303063</v>
       </c>
       <c r="D343">
         <v>1008088.478250072</v>
       </c>
       <c r="E343">
-        <v>1211562.225197242</v>
+        <v>1211562.225197241</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,16 +6202,16 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>2629134.063558221</v>
+        <v>2629134.063558222</v>
       </c>
       <c r="C344">
-        <v>3210611.146873524</v>
+        <v>3210611.146873525</v>
       </c>
       <c r="D344">
-        <v>4567948.93326307</v>
+        <v>4567948.933263068</v>
       </c>
       <c r="E344">
-        <v>4982379.078891834</v>
+        <v>4982379.078891833</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6219,13 +6219,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>655618.7813439419</v>
+        <v>655618.781343942</v>
       </c>
       <c r="C345">
         <v>960146.058492024</v>
       </c>
       <c r="D345">
-        <v>1621158.563024947</v>
+        <v>1621158.563024948</v>
       </c>
       <c r="E345">
         <v>1932480.386984873</v>
@@ -6236,7 +6236,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>692042.0469741608</v>
+        <v>692042.0469741611</v>
       </c>
       <c r="C346">
         <v>945815.5203055758</v>
@@ -6245,7 +6245,7 @@
         <v>1593207.553317621</v>
       </c>
       <c r="E346">
-        <v>1892220.378922689</v>
+        <v>1892220.378922688</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,7 +6253,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>692042.0469741608</v>
+        <v>692042.0469741611</v>
       </c>
       <c r="C347">
         <v>945815.5203055758</v>
@@ -6262,7 +6262,7 @@
         <v>1593207.553317621</v>
       </c>
       <c r="E347">
-        <v>1892220.378922689</v>
+        <v>1892220.378922688</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6270,16 +6270,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>683305.3939318371</v>
+        <v>683305.3939318368</v>
       </c>
       <c r="C348">
-        <v>884173.4199332977</v>
+        <v>884173.4199332974</v>
       </c>
       <c r="D348">
         <v>1331878.193151871</v>
       </c>
       <c r="E348">
-        <v>1647720.147537996</v>
+        <v>1647720.147537994</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6287,16 +6287,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>802883.8378699085</v>
+        <v>802883.8378699083</v>
       </c>
       <c r="C349">
-        <v>953976.5846648739</v>
+        <v>953976.5846648735</v>
       </c>
       <c r="D349">
         <v>1259884.777305824</v>
       </c>
       <c r="E349">
-        <v>1356946.00385482</v>
+        <v>1356946.003854819</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6304,16 +6304,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>802883.8378699085</v>
+        <v>802883.8378699083</v>
       </c>
       <c r="C350">
-        <v>953976.5846648739</v>
+        <v>953976.5846648735</v>
       </c>
       <c r="D350">
         <v>1259884.777305824</v>
       </c>
       <c r="E350">
-        <v>1356946.00385482</v>
+        <v>1356946.003854819</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>823259.7252521836</v>
+        <v>823259.7252521839</v>
       </c>
       <c r="C351">
         <v>1336718.794439075</v>
@@ -6330,7 +6330,7 @@
         <v>2543794.096840793</v>
       </c>
       <c r="E351">
-        <v>3276871.483803951</v>
+        <v>3276871.483803953</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>984971.4569981484</v>
+        <v>984971.4569981486</v>
       </c>
       <c r="C352">
-        <v>1426690.251757089</v>
+        <v>1426690.25175709</v>
       </c>
       <c r="D352">
         <v>2411304.820963668</v>
       </c>
       <c r="E352">
-        <v>2561232.883892743</v>
+        <v>2561232.883892745</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,13 +6355,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>4671433.844320203</v>
+        <v>4671433.844320204</v>
       </c>
       <c r="C353">
         <v>6286599.7086367</v>
       </c>
       <c r="D353">
-        <v>9181424.156435207</v>
+        <v>9181424.156435205</v>
       </c>
       <c r="E353">
         <v>12200572.81782144</v>
@@ -6372,16 +6372,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>6400794.741927772</v>
+        <v>6400794.741927771</v>
       </c>
       <c r="C354">
-        <v>6927960.20185692</v>
+        <v>6927960.201856918</v>
       </c>
       <c r="D354">
         <v>8269963.095927685</v>
       </c>
       <c r="E354">
-        <v>8560633.922146002</v>
+        <v>8560633.922146004</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>6205337.494694002</v>
+        <v>6205337.494694003</v>
       </c>
       <c r="C355">
         <v>6891080.449851767</v>
@@ -6423,13 +6423,13 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>1311651.865320159</v>
+        <v>1311651.86532016</v>
       </c>
       <c r="C357">
         <v>1556289.606454988</v>
       </c>
       <c r="D357">
-        <v>1998323.282751841</v>
+        <v>1998323.28275184</v>
       </c>
       <c r="E357">
         <v>2070336.872507942</v>
@@ -6446,7 +6446,7 @@
         <v>1556289.606454988</v>
       </c>
       <c r="D358">
-        <v>1998323.282751841</v>
+        <v>1998323.28275184</v>
       </c>
       <c r="E358">
         <v>2118484.241636034</v>
@@ -6457,10 +6457,10 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>417864.8037264796</v>
+        <v>417864.8037264797</v>
       </c>
       <c r="C359">
-        <v>691240.23988696</v>
+        <v>691240.2398869602</v>
       </c>
       <c r="D359">
         <v>1341843.712518356</v>
@@ -6474,13 +6474,13 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>546438.5894884734</v>
+        <v>546438.5894884735</v>
       </c>
       <c r="C360">
-        <v>745455.1606624079</v>
+        <v>745455.1606624081</v>
       </c>
       <c r="D360">
-        <v>1232305.45027196</v>
+        <v>1232305.450271959</v>
       </c>
       <c r="E360">
         <v>1245460.494246218</v>
@@ -6494,10 +6494,10 @@
         <v>10297581.28394632</v>
       </c>
       <c r="C361">
-        <v>15189279.89736908</v>
+        <v>15189279.89736909</v>
       </c>
       <c r="D361">
-        <v>27470515.09468838</v>
+        <v>27470515.09468839</v>
       </c>
       <c r="E361">
         <v>40051318.15218556</v>
@@ -6511,10 +6511,10 @@
         <v>12795255.83150032</v>
       </c>
       <c r="C362">
-        <v>16255614.59309087</v>
+        <v>16255614.59309088</v>
       </c>
       <c r="D362">
-        <v>26410645.65948458</v>
+        <v>26410645.65948457</v>
       </c>
       <c r="E362">
         <v>32205471.51774957</v>
@@ -6528,13 +6528,13 @@
         <v>854854.6409277086</v>
       </c>
       <c r="C363">
-        <v>1163476.757455921</v>
+        <v>1163476.75745592</v>
       </c>
       <c r="D363">
-        <v>2245751.870949795</v>
+        <v>2245751.870949796</v>
       </c>
       <c r="E363">
-        <v>3416448.93090592</v>
+        <v>3416448.930905918</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>2081301.623481127</v>
       </c>
       <c r="C364">
-        <v>3148001.274726114</v>
+        <v>3148001.274726113</v>
       </c>
       <c r="D364">
-        <v>5968325.733768004</v>
+        <v>5968325.733768006</v>
       </c>
       <c r="E364">
-        <v>8668584.460594805</v>
+        <v>8668584.460594801</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6565,10 +6565,10 @@
         <v>3040377.299521802</v>
       </c>
       <c r="D365">
-        <v>6020224.218409465</v>
+        <v>6020224.218409467</v>
       </c>
       <c r="E365">
-        <v>9210370.98938198</v>
+        <v>9210370.989381976</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,16 +6576,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>573436.6617520603</v>
+        <v>573436.6617520605</v>
       </c>
       <c r="C366">
-        <v>861931.9815324793</v>
+        <v>861931.9815324791</v>
       </c>
       <c r="D366">
         <v>1636462.031474377</v>
       </c>
       <c r="E366">
-        <v>2142487.655160279</v>
+        <v>2142487.655160278</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>637151.8463911782</v>
+        <v>637151.8463911783</v>
       </c>
       <c r="C367">
-        <v>882954.712789369</v>
+        <v>882954.7127893688</v>
       </c>
       <c r="D367">
-        <v>1591004.752822311</v>
+        <v>1591004.752822312</v>
       </c>
       <c r="E367">
-        <v>1928238.889644251</v>
+        <v>1928238.88964425</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,16 +6610,16 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>626481.4857543096</v>
+        <v>626481.4857543097</v>
       </c>
       <c r="C368">
-        <v>895537.2629840928</v>
+        <v>895537.2629840927</v>
       </c>
       <c r="D368">
         <v>1753117.987072058</v>
       </c>
       <c r="E368">
-        <v>2377058.637790034</v>
+        <v>2377058.637790032</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6627,16 +6627,16 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>700867.031030296</v>
+        <v>700867.0310302961</v>
       </c>
       <c r="C369">
-        <v>903977.4440462588</v>
+        <v>903977.4440462585</v>
       </c>
       <c r="D369">
         <v>1545547.474170245</v>
       </c>
       <c r="E369">
-        <v>1642573.868956214</v>
+        <v>1642573.868956213</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6644,16 +6644,16 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>374484.1796276188</v>
+        <v>374484.1796276189</v>
       </c>
       <c r="C370">
-        <v>579249.5856974628</v>
+        <v>579249.585697463</v>
       </c>
       <c r="D370">
         <v>1206879.842964574</v>
       </c>
       <c r="E370">
-        <v>1797877.326653672</v>
+        <v>1797877.326653671</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6661,16 +6661,16 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>468105.2245345235</v>
+        <v>468105.2245345237</v>
       </c>
       <c r="C371">
-        <v>616620.5267102022</v>
+        <v>616620.5267102025</v>
       </c>
       <c r="D371">
         <v>1123646.750346328</v>
       </c>
       <c r="E371">
-        <v>1331760.982706424</v>
+        <v>1331760.982706423</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6678,10 +6678,10 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>432997.3326944343</v>
+        <v>432997.3326944344</v>
       </c>
       <c r="C372">
-        <v>597935.0562038325</v>
+        <v>597935.0562038327</v>
       </c>
       <c r="D372">
         <v>1165263.296655451</v>
@@ -6695,13 +6695,13 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>4450406.952548335</v>
+        <v>4450406.952548334</v>
       </c>
       <c r="C373">
-        <v>6171119.134777242</v>
+        <v>6171119.134777244</v>
       </c>
       <c r="D373">
-        <v>9930738.32303907</v>
+        <v>9930738.323039064</v>
       </c>
       <c r="E373">
         <v>14223066.52396266</v>
@@ -6712,16 +6712,16 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>3223987.163584714</v>
+        <v>3223987.163584713</v>
       </c>
       <c r="C374">
-        <v>4743641.333007258</v>
+        <v>4743641.33300726</v>
       </c>
       <c r="D374">
         <v>7833226.000998185</v>
       </c>
       <c r="E374">
-        <v>11535834.70335518</v>
+        <v>11535834.70335517</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6729,13 +6729,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>6149218.208628614</v>
+        <v>6149218.208628613</v>
       </c>
       <c r="C375">
-        <v>7084192.88431061</v>
+        <v>7084192.884310612</v>
       </c>
       <c r="D375">
-        <v>9067195.860166106</v>
+        <v>9067195.860166103</v>
       </c>
       <c r="E375">
         <v>9766068.719218602</v>
@@ -6746,16 +6746,16 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>4187891.990237253</v>
+        <v>4187891.990237252</v>
       </c>
       <c r="C376">
         <v>4805159.026950098</v>
       </c>
       <c r="D376">
-        <v>6518617.096037802</v>
+        <v>6518617.096037805</v>
       </c>
       <c r="E376">
-        <v>7534357.981488297</v>
+        <v>7534357.981488294</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,16 +6763,16 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>4187891.990237253</v>
+        <v>4187891.990237252</v>
       </c>
       <c r="C377">
         <v>4805159.026950098</v>
       </c>
       <c r="D377">
-        <v>6518617.096037802</v>
+        <v>6518617.096037805</v>
       </c>
       <c r="E377">
-        <v>7534357.981488297</v>
+        <v>7534357.981488294</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6780,16 +6780,16 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>2678260.157370932</v>
+        <v>2678260.157370931</v>
       </c>
       <c r="C378">
-        <v>3568445.709756523</v>
+        <v>3568445.709756522</v>
       </c>
       <c r="D378">
-        <v>5340601.606654176</v>
+        <v>5340601.606654178</v>
       </c>
       <c r="E378">
-        <v>7222445.125901392</v>
+        <v>7222445.125901391</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,16 +6797,16 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>2594564.527453091</v>
+        <v>2594564.52745309</v>
       </c>
       <c r="C379">
-        <v>3677683.843728662</v>
+        <v>3677683.843728661</v>
       </c>
       <c r="D379">
-        <v>5394007.622720717</v>
+        <v>5394007.622720719</v>
       </c>
       <c r="E379">
-        <v>7150935.7682192</v>
+        <v>7150935.768219198</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6814,16 +6814,16 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>3598912.08646719</v>
+        <v>3598912.086467189</v>
       </c>
       <c r="C380">
         <v>3859747.400348892</v>
       </c>
       <c r="D380">
-        <v>4859947.462055299</v>
+        <v>4859947.462055302</v>
       </c>
       <c r="E380">
-        <v>5363201.8261644</v>
+        <v>5363201.826164399</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6831,16 +6831,16 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>2678260.157370932</v>
+        <v>2678260.157370931</v>
       </c>
       <c r="C381">
-        <v>3568445.709756523</v>
+        <v>3568445.709756522</v>
       </c>
       <c r="D381">
-        <v>5340601.606654176</v>
+        <v>5340601.606654178</v>
       </c>
       <c r="E381">
-        <v>7222445.125901392</v>
+        <v>7222445.125901391</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>1807478.576075111</v>
+        <v>1807478.57607511</v>
       </c>
       <c r="C382">
         <v>2082798.694212917</v>
@@ -6865,13 +6865,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>4973655.881042179</v>
+        <v>4973655.881042176</v>
       </c>
       <c r="C383">
-        <v>6876975.98017681</v>
+        <v>6876975.980176813</v>
       </c>
       <c r="D383">
-        <v>10695245.93989476</v>
+        <v>10695245.93989477</v>
       </c>
       <c r="E383">
         <v>14824205.98829103</v>
@@ -6885,13 +6885,13 @@
         <v>7676034.769816656</v>
       </c>
       <c r="C384">
-        <v>8375665.600201554</v>
+        <v>8375665.600201556</v>
       </c>
       <c r="D384">
         <v>11147650.64997257</v>
       </c>
       <c r="E384">
-        <v>12764761.48775016</v>
+        <v>12764761.48775015</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>1165257.955339783</v>
+        <v>1165257.955339782</v>
       </c>
       <c r="C385">
-        <v>1607205.347027825</v>
+        <v>1607205.347027826</v>
       </c>
       <c r="D385">
         <v>2378469.718101219</v>
       </c>
       <c r="E385">
-        <v>3201282.677821254</v>
+        <v>3201282.677821255</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>1523258.770591926</v>
+        <v>1523258.770591925</v>
       </c>
       <c r="C386">
         <v>2102947.168733657</v>
       </c>
       <c r="D386">
-        <v>3400213.542260862</v>
+        <v>3400213.542260866</v>
       </c>
       <c r="E386">
-        <v>4509561.287941949</v>
+        <v>4509561.287941951</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,16 +6933,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>1746174.688239525</v>
+        <v>1746174.688239524</v>
       </c>
       <c r="C387">
-        <v>2181807.687561169</v>
+        <v>2181807.68756117</v>
       </c>
       <c r="D387">
-        <v>3309541.181133906</v>
+        <v>3309541.181133909</v>
       </c>
       <c r="E387">
-        <v>3921357.641688651</v>
+        <v>3921357.641688654</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,13 +6950,13 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>1986757.066690546</v>
+        <v>1986757.066690547</v>
       </c>
       <c r="C388">
         <v>2925693.74672394</v>
       </c>
       <c r="D388">
-        <v>6975453.334767712</v>
+        <v>6975453.334767713</v>
       </c>
       <c r="E388">
         <v>11147779.03103783</v>
@@ -6973,10 +6973,10 @@
         <v>277318.757933689</v>
       </c>
       <c r="D389">
-        <v>699100.1545079709</v>
+        <v>699100.1545079711</v>
       </c>
       <c r="E389">
-        <v>993153.7898135057</v>
+        <v>993153.7898135068</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6990,10 +6990,10 @@
         <v>285984.9691191168</v>
       </c>
       <c r="D390">
-        <v>699100.1545079709</v>
+        <v>699100.1545079711</v>
       </c>
       <c r="E390">
-        <v>948010.4357310737</v>
+        <v>948010.4357310747</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7001,13 +7001,13 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>1986757.066690546</v>
+        <v>1986757.066690547</v>
       </c>
       <c r="C391">
         <v>2925693.74672394</v>
       </c>
       <c r="D391">
-        <v>6975453.334767712</v>
+        <v>6975453.334767713</v>
       </c>
       <c r="E391">
         <v>11147779.03103783</v>
@@ -7024,10 +7024,10 @@
         <v>294651.1803045446</v>
       </c>
       <c r="D392">
-        <v>674132.2918469718</v>
+        <v>674132.2918469722</v>
       </c>
       <c r="E392">
-        <v>812580.3734837775</v>
+        <v>812580.3734837782</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,13 +7035,13 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>466516.1556866499</v>
+        <v>466516.15568665</v>
       </c>
       <c r="C393">
-        <v>633440.6160834893</v>
+        <v>633440.6160834894</v>
       </c>
       <c r="D393">
-        <v>1410129.200915674</v>
+        <v>1410129.200915673</v>
       </c>
       <c r="E393">
         <v>2003518.404558005</v>
@@ -7055,10 +7055,10 @@
         <v>443647.7166824024</v>
       </c>
       <c r="C394">
-        <v>618878.7628401907</v>
+        <v>618878.7628401908</v>
       </c>
       <c r="D394">
-        <v>1429185.000928048</v>
+        <v>1429185.000928047</v>
       </c>
       <c r="E394">
         <v>2102052.096585448</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>345087.5707089987</v>
+        <v>345087.5707089988</v>
       </c>
       <c r="C395">
-        <v>538603.212668563</v>
+        <v>538603.2126685628</v>
       </c>
       <c r="D395">
         <v>1324377.181500908</v>
       </c>
       <c r="E395">
-        <v>2224317.252392715</v>
+        <v>2224317.252392716</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,13 +7086,13 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>433973.7631643468</v>
+        <v>433973.763164347</v>
       </c>
       <c r="C396">
-        <v>587567.1410929778</v>
+        <v>587567.1410929775</v>
       </c>
       <c r="D396">
-        <v>1242877.047254699</v>
+        <v>1242877.047254698</v>
       </c>
       <c r="E396">
         <v>1702992.896363173</v>
@@ -7106,13 +7106,13 @@
         <v>167871.3851937417</v>
       </c>
       <c r="C397">
-        <v>215735.9292017859</v>
+        <v>215735.9292017858</v>
       </c>
       <c r="D397">
-        <v>473559.9404244612</v>
+        <v>473559.940424461</v>
       </c>
       <c r="E397">
-        <v>737824.8332271429</v>
+        <v>737824.8332271423</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7123,13 +7123,13 @@
         <v>167871.3851937417</v>
       </c>
       <c r="C398">
-        <v>215735.9292017859</v>
+        <v>215735.9292017858</v>
       </c>
       <c r="D398">
-        <v>473559.9404244612</v>
+        <v>473559.940424461</v>
       </c>
       <c r="E398">
-        <v>737824.8332271429</v>
+        <v>737824.8332271423</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>1209196.289463882</v>
+        <v>1209196.289463883</v>
       </c>
       <c r="C399">
         <v>2058288.126894574</v>
       </c>
       <c r="D399">
-        <v>6356930.294625839</v>
+        <v>6356930.294625834</v>
       </c>
       <c r="E399">
         <v>11220281.03311489</v>
@@ -7157,13 +7157,13 @@
         <v>1249751.114260308</v>
       </c>
       <c r="C400">
-        <v>1846699.608755171</v>
+        <v>1846699.608755172</v>
       </c>
       <c r="D400">
-        <v>5159186.543177564</v>
+        <v>5159186.543177562</v>
       </c>
       <c r="E400">
-        <v>7656108.47106933</v>
+        <v>7656108.471069327</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7177,10 +7177,10 @@
         <v>2139005.30834142</v>
       </c>
       <c r="D401">
-        <v>6150200.854150202</v>
+        <v>6150200.854150197</v>
       </c>
       <c r="E401">
-        <v>9925633.221601633</v>
+        <v>9925633.221601635</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7194,10 +7194,10 @@
         <v>172439.494177336</v>
       </c>
       <c r="D402">
-        <v>499097.1640800633</v>
+        <v>499097.1640800636</v>
       </c>
       <c r="E402">
-        <v>838611.4023506786</v>
+        <v>838611.4023506788</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>1188787.645272001</v>
+        <v>1188787.645272</v>
       </c>
       <c r="C403">
-        <v>1823615.863645731</v>
+        <v>1823615.863645732</v>
       </c>
       <c r="D403">
-        <v>5261348.652943457</v>
+        <v>5261348.652943454</v>
       </c>
       <c r="E403">
-        <v>8182465.928455346</v>
+        <v>8182465.928455343</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7225,13 +7225,13 @@
         <v>246498.1230864272</v>
       </c>
       <c r="C404">
-        <v>402559.8988897129</v>
+        <v>402559.898889713</v>
       </c>
       <c r="D404">
         <v>1284152.276137727</v>
       </c>
       <c r="E404">
-        <v>2118737.350307972</v>
+        <v>2118737.350307971</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7239,16 +7239,16 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>272641.8634137755</v>
+        <v>272641.8634137756</v>
       </c>
       <c r="C405">
-        <v>415758.5840992117</v>
+        <v>415758.5840992118</v>
       </c>
       <c r="D405">
         <v>1238289.694847094</v>
       </c>
       <c r="E405">
-        <v>1902539.661501036</v>
+        <v>1902539.661501035</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7259,13 +7259,13 @@
         <v>246498.1230864272</v>
       </c>
       <c r="C406">
-        <v>402559.8988897129</v>
+        <v>402559.898889713</v>
       </c>
       <c r="D406">
         <v>1284152.276137727</v>
       </c>
       <c r="E406">
-        <v>2118737.350307972</v>
+        <v>2118737.350307971</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,7 +7273,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>201049.037523028</v>
+        <v>201049.0375230279</v>
       </c>
       <c r="C407">
         <v>358210.6227658093</v>
@@ -7282,7 +7282,7 @@
         <v>1316444.10205756</v>
       </c>
       <c r="E407">
-        <v>2545289.405669776</v>
+        <v>2545289.405669775</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,7 +7290,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>261682.8742363222</v>
+        <v>261682.8742363221</v>
       </c>
       <c r="C408">
         <v>392876.166904436</v>
@@ -7299,7 +7299,7 @@
         <v>1231512.224505459</v>
       </c>
       <c r="E408">
-        <v>1939268.118605544</v>
+        <v>1939268.118605542</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>217005.310342316</v>
+        <v>217005.3103423159</v>
       </c>
       <c r="C409">
         <v>363988.2134555804</v>
       </c>
       <c r="D409">
-        <v>1295211.132669535</v>
+        <v>1295211.132669534</v>
       </c>
       <c r="E409">
-        <v>2424085.14825693</v>
+        <v>2424085.148256928</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,13 +7324,13 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>1658734.855119522</v>
+        <v>1658734.855119521</v>
       </c>
       <c r="C410">
-        <v>2982869.333008352</v>
+        <v>2982869.333008354</v>
       </c>
       <c r="D410">
-        <v>7168358.785558074</v>
+        <v>7168358.785558079</v>
       </c>
       <c r="E410">
         <v>11645961.5041622</v>
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>317984.9493369431</v>
+        <v>317984.9493369432</v>
       </c>
       <c r="C411">
-        <v>716193.7097033156</v>
+        <v>716193.7097033152</v>
       </c>
       <c r="D411">
-        <v>2376121.265229073</v>
+        <v>2376121.265229072</v>
       </c>
       <c r="E411">
         <v>5084089.94045392</v>
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>545117.0560061882</v>
+        <v>545117.0560061884</v>
       </c>
       <c r="C412">
-        <v>878350.7760512361</v>
+        <v>878350.7760512356</v>
       </c>
       <c r="D412">
-        <v>2127869.789757379</v>
+        <v>2127869.789757378</v>
       </c>
       <c r="E412">
-        <v>3307721.166078454</v>
+        <v>3307721.166078453</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7378,13 +7378,13 @@
         <v>1404781.298513178</v>
       </c>
       <c r="C413">
-        <v>2212391.965742141</v>
+        <v>2212391.965742142</v>
       </c>
       <c r="D413">
         <v>4876027.559565932</v>
       </c>
       <c r="E413">
-        <v>6708630.866496382</v>
+        <v>6708630.866496376</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,13 +7392,13 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>1658734.855119522</v>
+        <v>1658734.855119521</v>
       </c>
       <c r="C414">
-        <v>2982869.333008352</v>
+        <v>2982869.333008354</v>
       </c>
       <c r="D414">
-        <v>7168358.785558074</v>
+        <v>7168358.785558079</v>
       </c>
       <c r="E414">
         <v>11645961.5041622</v>
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>617897.4504561011</v>
+        <v>617897.4504561016</v>
       </c>
       <c r="C415">
         <v>1018667.178257893</v>
       </c>
       <c r="D415">
-        <v>2401034.545461475</v>
+        <v>2401034.545461476</v>
       </c>
       <c r="E415">
-        <v>3667117.606016177</v>
+        <v>3667117.606016176</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>698143.8725932571</v>
+        <v>698143.8725932576</v>
       </c>
       <c r="C416">
         <v>1090404.303487322</v>
       </c>
       <c r="D416">
-        <v>2326002.215915804</v>
+        <v>2326002.215915805</v>
       </c>
       <c r="E416">
-        <v>3023763.640048427</v>
+        <v>3023763.640048426</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,10 +7446,10 @@
         <v>156836.2856825288</v>
       </c>
       <c r="C417">
-        <v>234612.9909009757</v>
+        <v>234612.9909009759</v>
       </c>
       <c r="D417">
-        <v>610962.9380774822</v>
+        <v>610962.9380774819</v>
       </c>
       <c r="E417">
         <v>1043023.535102143</v>
@@ -7463,13 +7463,13 @@
         <v>188203.5428190345</v>
       </c>
       <c r="C418">
-        <v>255941.4446192462</v>
+        <v>255941.4446192464</v>
       </c>
       <c r="D418">
-        <v>580414.791173608</v>
+        <v>580414.7911736078</v>
       </c>
       <c r="E418">
-        <v>768543.6574436844</v>
+        <v>768543.6574436842</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7486,7 +7486,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E419">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7503,7 +7503,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E420">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>461217.4236370752</v>
       </c>
       <c r="C421">
-        <v>668114.2226479372</v>
+        <v>668114.2226479377</v>
       </c>
       <c r="D421">
         <v>1344597.93669863</v>
       </c>
       <c r="E421">
-        <v>2203788.607272879</v>
+        <v>2203788.607272876</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>461217.4236370752</v>
       </c>
       <c r="C422">
-        <v>668114.2226479372</v>
+        <v>668114.2226479377</v>
       </c>
       <c r="D422">
         <v>1344597.93669863</v>
       </c>
       <c r="E422">
-        <v>2203788.607272879</v>
+        <v>2203788.607272876</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7554,7 +7554,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E423">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E424">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>461217.4236370752</v>
       </c>
       <c r="C425">
-        <v>668114.2226479372</v>
+        <v>668114.2226479377</v>
       </c>
       <c r="D425">
         <v>1344597.93669863</v>
       </c>
       <c r="E425">
-        <v>2203788.607272879</v>
+        <v>2203788.607272876</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7605,7 +7605,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E426">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7622,7 +7622,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E427">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7639,7 +7639,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E428">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7656,7 +7656,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E429">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7673,7 +7673,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E430">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>461217.4236370752</v>
       </c>
       <c r="C431">
-        <v>668114.2226479372</v>
+        <v>668114.2226479377</v>
       </c>
       <c r="D431">
         <v>1344597.93669863</v>
       </c>
       <c r="E431">
-        <v>2203788.607272879</v>
+        <v>2203788.607272876</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E432">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7724,7 +7724,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E433">
-        <v>2273949.929668716</v>
+        <v>2273949.929668717</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7741,7 +7741,7 @@
         <v>1797745.895372753</v>
       </c>
       <c r="E434">
-        <v>2923222.456746257</v>
+        <v>2923222.456746255</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7769,10 +7769,10 @@
         <v>215990.9841122196</v>
       </c>
       <c r="C436">
-        <v>313698.9716674017</v>
+        <v>313698.9716674015</v>
       </c>
       <c r="D436">
-        <v>678622.0371470486</v>
+        <v>678622.0371470493</v>
       </c>
       <c r="E436">
         <v>1006133.140513601</v>
@@ -7789,7 +7789,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D437">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E437">
         <v>747112.0086343527</v>
@@ -7806,7 +7806,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D438">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E438">
         <v>747112.0086343527</v>
@@ -7823,7 +7823,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D439">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E439">
         <v>747112.0086343527</v>
@@ -7840,7 +7840,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D440">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E440">
         <v>747112.0086343527</v>
@@ -7857,7 +7857,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D441">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E441">
         <v>747112.0086343527</v>
@@ -7874,7 +7874,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D442">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E442">
         <v>747112.0086343527</v>
@@ -7891,7 +7891,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D443">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E443">
         <v>747112.0086343527</v>
@@ -7908,7 +7908,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D444">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E444">
         <v>747112.0086343527</v>
@@ -7925,7 +7925,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D445">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E445">
         <v>747112.0086343527</v>
@@ -7942,7 +7942,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D446">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E446">
         <v>747112.0086343527</v>
@@ -7959,7 +7959,7 @@
         <v>212124.6239835651</v>
       </c>
       <c r="D447">
-        <v>486262.031399426</v>
+        <v>486262.0313994261</v>
       </c>
       <c r="E447">
         <v>747112.0086343527</v>
@@ -7970,13 +7970,13 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>404721.0875998892</v>
+        <v>404721.0875998891</v>
       </c>
       <c r="C448">
-        <v>439801.1890355989</v>
+        <v>439801.1890355988</v>
       </c>
       <c r="D448">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E448">
         <v>1091613.81750957</v>
@@ -7987,13 +7987,13 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>404721.0875998892</v>
+        <v>404721.0875998891</v>
       </c>
       <c r="C449">
-        <v>439801.1890355989</v>
+        <v>439801.1890355988</v>
       </c>
       <c r="D449">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E449">
         <v>1091613.81750957</v>
@@ -8004,13 +8004,13 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>404721.0875998892</v>
+        <v>404721.0875998891</v>
       </c>
       <c r="C450">
-        <v>439801.1890355989</v>
+        <v>439801.1890355988</v>
       </c>
       <c r="D450">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E450">
         <v>1091613.81750957</v>
@@ -8021,13 +8021,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>404721.0875998892</v>
+        <v>404721.0875998891</v>
       </c>
       <c r="C451">
-        <v>439801.1890355989</v>
+        <v>439801.1890355988</v>
       </c>
       <c r="D451">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E451">
         <v>1091613.81750957</v>
@@ -8038,13 +8038,13 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>404721.0875998892</v>
+        <v>404721.0875998891</v>
       </c>
       <c r="C452">
-        <v>439801.1890355989</v>
+        <v>439801.1890355988</v>
       </c>
       <c r="D452">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E452">
         <v>1091613.81750957</v>
@@ -8055,13 +8055,13 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>242832.6525599335</v>
+        <v>242832.6525599334</v>
       </c>
       <c r="C453">
-        <v>390934.3902538657</v>
+        <v>390934.3902538656</v>
       </c>
       <c r="D453">
-        <v>801074.2586083543</v>
+        <v>801074.2586083545</v>
       </c>
       <c r="E453">
         <v>1541101.86001351</v>
@@ -8072,16 +8072,16 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C454">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D454">
         <v>1396879.531462838</v>
       </c>
       <c r="E454">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,16 +8089,16 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C455">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D455">
         <v>1396879.531462838</v>
       </c>
       <c r="E455">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,16 +8106,16 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C456">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D456">
         <v>1396879.531462838</v>
       </c>
       <c r="E456">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,16 +8123,16 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C457">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D457">
         <v>1396879.531462838</v>
       </c>
       <c r="E457">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,16 +8140,16 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C458">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D458">
         <v>1396879.531462838</v>
       </c>
       <c r="E458">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>662004.3568920383</v>
+        <v>662004.3568920384</v>
       </c>
       <c r="C459">
-        <v>788983.2842632253</v>
+        <v>788983.2842632255</v>
       </c>
       <c r="D459">
         <v>1321372.529762144</v>
@@ -8174,16 +8174,16 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C460">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D460">
         <v>1396879.531462838</v>
       </c>
       <c r="E460">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8191,16 +8191,16 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>575655.9625148159</v>
+        <v>575655.962514816</v>
       </c>
       <c r="C461">
-        <v>731252.800048843</v>
+        <v>731252.8000488431</v>
       </c>
       <c r="D461">
         <v>1396879.531462838</v>
       </c>
       <c r="E461">
-        <v>2045423.176234434</v>
+        <v>2045423.176234433</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8208,10 +8208,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>662004.3568920383</v>
+        <v>662004.3568920384</v>
       </c>
       <c r="C462">
-        <v>788983.2842632253</v>
+        <v>788983.2842632255</v>
       </c>
       <c r="D462">
         <v>1321372.529762144</v>
@@ -8234,7 +8234,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E463">
-        <v>2330798.677910434</v>
+        <v>2330798.677910435</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8251,7 +8251,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E464">
-        <v>2330798.677910434</v>
+        <v>2330798.677910435</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8268,7 +8268,7 @@
         <v>1657296.997296757</v>
       </c>
       <c r="E465">
-        <v>2215991.217210873</v>
+        <v>2215991.217210871</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8285,7 +8285,7 @@
         <v>1769656.115757554</v>
       </c>
       <c r="E466">
-        <v>3017519.955350976</v>
+        <v>3017519.955350973</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8302,7 +8302,7 @@
         <v>1388435.087641645</v>
       </c>
       <c r="E467">
-        <v>2330798.677910434</v>
+        <v>2330798.677910435</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,13 +8310,13 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>242832.6525599335</v>
+        <v>242832.6525599334</v>
       </c>
       <c r="C468">
-        <v>390934.3902538657</v>
+        <v>390934.3902538656</v>
       </c>
       <c r="D468">
-        <v>801074.2586083543</v>
+        <v>801074.2586083545</v>
       </c>
       <c r="E468">
         <v>1541101.86001351</v>
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>445193.1963598781</v>
+        <v>445193.196359878</v>
       </c>
       <c r="C469">
-        <v>464234.5884264656</v>
+        <v>464234.5884264653</v>
       </c>
       <c r="D469">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E469">
-        <v>963188.6625084438</v>
+        <v>963188.6625084439</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>445193.1963598781</v>
+        <v>445193.196359878</v>
       </c>
       <c r="C470">
-        <v>464234.5884264656</v>
+        <v>464234.5884264653</v>
       </c>
       <c r="D470">
-        <v>716750.6524390538</v>
+        <v>716750.652439054</v>
       </c>
       <c r="E470">
-        <v>963188.6625084438</v>
+        <v>963188.6625084439</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8378,10 +8378,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>690787.155017779</v>
+        <v>690787.1550177792</v>
       </c>
       <c r="C472">
-        <v>827470.2737394802</v>
+        <v>827470.2737394804</v>
       </c>
       <c r="D472">
         <v>1321372.529762144</v>
@@ -8404,7 +8404,7 @@
         <v>1657296.997296757</v>
       </c>
       <c r="E473">
-        <v>2168842.467908514</v>
+        <v>2168842.467908512</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8421,7 +8421,7 @@
         <v>1657296.997296757</v>
       </c>
       <c r="E474">
-        <v>2168842.467908514</v>
+        <v>2168842.467908512</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8432,13 +8432,13 @@
         <v>230390.3830530342</v>
       </c>
       <c r="C475">
-        <v>325317.4520995276</v>
+        <v>325317.4520995275</v>
       </c>
       <c r="D475">
-        <v>678622.0371470486</v>
+        <v>678622.0371470493</v>
       </c>
       <c r="E475">
-        <v>910310.9366551628</v>
+        <v>910310.9366551633</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>358901.5912532152</v>
+        <v>358901.5912532151</v>
       </c>
       <c r="C476">
-        <v>469876.7722971773</v>
+        <v>469876.7722971776</v>
       </c>
       <c r="D476">
-        <v>912191.5008655834</v>
+        <v>912191.5008655832</v>
       </c>
       <c r="E476">
-        <v>1167787.040958768</v>
+        <v>1167787.040958767</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>351424.4747687732</v>
+        <v>351424.4747687731</v>
       </c>
       <c r="C477">
-        <v>458416.3632167584</v>
+        <v>458416.3632167587</v>
       </c>
       <c r="D477">
-        <v>939833.6675584798</v>
+        <v>939833.6675584796</v>
       </c>
       <c r="E477">
-        <v>1214498.522597119</v>
+        <v>1214498.522597118</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,7 +8480,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>1301739.838038602</v>
+        <v>1301739.838038603</v>
       </c>
       <c r="C478">
         <v>2070008.180643173</v>
@@ -8489,7 +8489,7 @@
         <v>5015665.970767506</v>
       </c>
       <c r="E478">
-        <v>8762137.978954216</v>
+        <v>8762137.97895422</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,16 +8497,16 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>4914091.02465499</v>
+        <v>4914091.024654992</v>
       </c>
       <c r="C479">
-        <v>6611233.709393506</v>
+        <v>6611233.709393505</v>
       </c>
       <c r="D479">
         <v>14241344.69677601</v>
       </c>
       <c r="E479">
-        <v>20942996.51414171</v>
+        <v>20942996.51414172</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8520,10 +8520,10 @@
         <v>2132287.377542218</v>
       </c>
       <c r="D480">
-        <v>5186774.486171504</v>
+        <v>5186774.486171505</v>
       </c>
       <c r="E480">
-        <v>9056776.677907517</v>
+        <v>9056776.677907513</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>1301739.838038602</v>
+        <v>1301739.838038603</v>
       </c>
       <c r="C481">
         <v>2070008.180643173</v>
@@ -8540,7 +8540,7 @@
         <v>5015665.970767506</v>
       </c>
       <c r="E481">
-        <v>8762137.978954216</v>
+        <v>8762137.97895422</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,7 +8548,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>1301739.838038602</v>
+        <v>1301739.838038603</v>
       </c>
       <c r="C482">
         <v>2070008.180643173</v>
@@ -8557,7 +8557,7 @@
         <v>5015665.970767506</v>
       </c>
       <c r="E482">
-        <v>8762137.978954216</v>
+        <v>8762137.97895422</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,7 +8565,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>1301739.838038602</v>
+        <v>1301739.838038603</v>
       </c>
       <c r="C483">
         <v>2070008.180643173</v>
@@ -8574,7 +8574,7 @@
         <v>5015665.970767506</v>
       </c>
       <c r="E483">
-        <v>8762137.978954216</v>
+        <v>8762137.97895422</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,7 +8582,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>1301739.838038602</v>
+        <v>1301739.838038603</v>
       </c>
       <c r="C484">
         <v>2070008.180643173</v>
@@ -8591,7 +8591,7 @@
         <v>5015665.970767506</v>
       </c>
       <c r="E484">
-        <v>8762137.978954216</v>
+        <v>8762137.97895422</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8605,10 +8605,10 @@
         <v>2132287.377542218</v>
       </c>
       <c r="D485">
-        <v>5186774.486171504</v>
+        <v>5186774.486171505</v>
       </c>
       <c r="E485">
-        <v>9056776.677907517</v>
+        <v>9056776.677907513</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>2283704.349496122</v>
+        <v>2283704.349496123</v>
       </c>
       <c r="C486">
-        <v>3742218.342207975</v>
+        <v>3742218.342207976</v>
       </c>
       <c r="D486">
-        <v>9274734.730599113</v>
+        <v>9274734.730599115</v>
       </c>
       <c r="E486">
         <v>16287086.47812749</v>
@@ -8636,13 +8636,13 @@
         <v>733237.8019366825</v>
       </c>
       <c r="C487">
-        <v>953043.7187271415</v>
+        <v>953043.7187271412</v>
       </c>
       <c r="D487">
         <v>1795095.520772929</v>
       </c>
       <c r="E487">
-        <v>2235976.245577346</v>
+        <v>2235976.245577344</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8650,13 +8650,13 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>212602.5545204222</v>
+        <v>212602.5545204221</v>
       </c>
       <c r="C488">
-        <v>294053.5321649726</v>
+        <v>294053.5321649725</v>
       </c>
       <c r="D488">
-        <v>706768.6494529721</v>
+        <v>706768.6494529725</v>
       </c>
       <c r="E488">
         <v>1142131.293182709</v>
@@ -8667,16 +8667,16 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>255123.0654245066</v>
+        <v>255123.0654245065</v>
       </c>
       <c r="C489">
-        <v>332408.3407082299</v>
+        <v>332408.3407082298</v>
       </c>
       <c r="D489">
-        <v>647871.2619985577</v>
+        <v>647871.2619985582</v>
       </c>
       <c r="E489">
-        <v>943499.7639335424</v>
+        <v>943499.7639335422</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,16 +8684,16 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>2327555.182210076</v>
+        <v>2327555.182210077</v>
       </c>
       <c r="C490">
-        <v>3440775.204600769</v>
+        <v>3440775.204600768</v>
       </c>
       <c r="D490">
         <v>7124318.197818167</v>
       </c>
       <c r="E490">
-        <v>10731354.72687632</v>
+        <v>10731354.72687631</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8701,10 +8701,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>2673231.694419493</v>
+        <v>2673231.694419494</v>
       </c>
       <c r="C491">
-        <v>3566220.133935173</v>
+        <v>3566220.133935171</v>
       </c>
       <c r="D491">
         <v>6809431.205649409</v>
@@ -8718,16 +8718,16 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>2327555.182210076</v>
+        <v>2327555.182210077</v>
       </c>
       <c r="C492">
-        <v>3440775.204600769</v>
+        <v>3440775.204600768</v>
       </c>
       <c r="D492">
         <v>7124318.197818167</v>
       </c>
       <c r="E492">
-        <v>10731354.72687632</v>
+        <v>10731354.72687631</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8735,16 +8735,16 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>2327555.182210076</v>
+        <v>2327555.182210077</v>
       </c>
       <c r="C493">
-        <v>3440775.204600769</v>
+        <v>3440775.204600768</v>
       </c>
       <c r="D493">
         <v>7124318.197818167</v>
       </c>
       <c r="E493">
-        <v>10731354.72687632</v>
+        <v>10731354.72687631</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8752,16 +8752,16 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>2327555.182210076</v>
+        <v>2327555.182210077</v>
       </c>
       <c r="C494">
-        <v>3440775.204600769</v>
+        <v>3440775.204600768</v>
       </c>
       <c r="D494">
         <v>7124318.197818167</v>
       </c>
       <c r="E494">
-        <v>10731354.72687632</v>
+        <v>10731354.72687631</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,7 +8772,7 @@
         <v>447332.2478875362</v>
       </c>
       <c r="C495">
-        <v>666689.3239164272</v>
+        <v>666689.3239164271</v>
       </c>
       <c r="D495">
         <v>1352152.349208838</v>
@@ -8786,13 +8786,13 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>3081861.81830048</v>
+        <v>3081861.818300479</v>
       </c>
       <c r="C496">
-        <v>4407721.207239303</v>
+        <v>4407721.207239301</v>
       </c>
       <c r="D496">
-        <v>8482858.075446784</v>
+        <v>8482858.075446788</v>
       </c>
       <c r="E496">
         <v>11684267.55704926</v>
@@ -8806,7 +8806,7 @@
         <v>447332.2478875362</v>
       </c>
       <c r="C497">
-        <v>666689.3239164272</v>
+        <v>666689.3239164271</v>
       </c>
       <c r="D497">
         <v>1352152.349208838</v>
@@ -8820,10 +8820,10 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>1010399.934723796</v>
+        <v>1010399.934723795</v>
       </c>
       <c r="C498">
-        <v>1369740.865882518</v>
+        <v>1369740.865882519</v>
       </c>
       <c r="D498">
         <v>2476197.384132817</v>
@@ -8837,13 +8837,13 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>1190334.169674609</v>
+        <v>1190334.169674608</v>
       </c>
       <c r="C499">
-        <v>1450313.857993254</v>
+        <v>1450313.857993255</v>
       </c>
       <c r="D499">
-        <v>2356381.381674777</v>
+        <v>2356381.381674778</v>
       </c>
       <c r="E499">
         <v>2766637.749073536</v>
@@ -8857,10 +8857,10 @@
         <v>1204175.264670825</v>
       </c>
       <c r="C500">
-        <v>1450313.857993254</v>
+        <v>1450313.857993255</v>
       </c>
       <c r="D500">
-        <v>2356381.381674777</v>
+        <v>2356381.381674778</v>
       </c>
       <c r="E500">
         <v>2703759.618412774</v>
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>357058.6253389933</v>
+        <v>357058.6253389934</v>
       </c>
       <c r="C501">
-        <v>521398.7732062785</v>
+        <v>521398.7732062784</v>
       </c>
       <c r="D501">
         <v>1213572.151649218</v>
       </c>
       <c r="E501">
-        <v>2215793.833077757</v>
+        <v>2215793.833077756</v>
       </c>
     </row>
   </sheetData>
